--- a/data/politicians/politicians_by_individuals.xlsx
+++ b/data/politicians/politicians_by_individuals.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rohanalexander/Documents/phd/hansard/data/politicians/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085D15B0-58A7-4C4B-A811-1768E94ABACD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F3FD65-B1BE-294B-9354-6B099BC00E14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9920" yWindow="460" windowWidth="18880" windowHeight="17540" xr2:uid="{CA0BA94F-DE87-564B-B86A-D7A8F2619401}"/>
+    <workbookView xWindow="-40040" yWindow="-10340" windowWidth="25740" windowHeight="23240" xr2:uid="{CA0BA94F-DE87-564B-B86A-D7A8F2619401}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$1176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$1176</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6689" uniqueCount="5145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6692" uniqueCount="5146">
   <si>
     <t>surname</t>
   </si>
@@ -15463,6 +15463,9 @@
   </si>
   <si>
     <t>1984-12-12</t>
+  </si>
+  <si>
+    <t>wasEverPrimeMinister</t>
   </si>
 </sst>
 </file>
@@ -15817,11 +15820,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A038825A-FA32-2D4C-A7E7-BB4D0BEA0C0F}">
-  <dimension ref="A1:R1176"/>
+  <dimension ref="A1:S1176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A420" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D450" sqref="D450"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15837,11 +15842,11 @@
     <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.1640625" customWidth="1"/>
-    <col min="12" max="15" width="10.1640625" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="12" max="16" width="10.1640625" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>5143</v>
       </c>
@@ -15888,16 +15893,19 @@
         <v>5128</v>
       </c>
       <c r="P1" t="s">
+        <v>5145</v>
+      </c>
+      <c r="Q1" t="s">
         <v>3343</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>3344</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>3432</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>2171</v>
       </c>
@@ -15925,8 +15933,11 @@
       <c r="K2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="P2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>2172</v>
       </c>
@@ -15964,7 +15975,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>2173</v>
       </c>
@@ -16002,7 +16013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>2174</v>
       </c>
@@ -16039,11 +16050,11 @@
       <c r="O5">
         <v>9</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>3345</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>2175</v>
       </c>
@@ -16069,7 +16080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>2176</v>
       </c>
@@ -16095,7 +16106,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>2177</v>
       </c>
@@ -16136,7 +16147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>2178</v>
       </c>
@@ -16177,7 +16188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>2179</v>
       </c>
@@ -16215,7 +16226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>2180</v>
       </c>
@@ -16241,7 +16252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>2181</v>
       </c>
@@ -16270,7 +16281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>2182</v>
       </c>
@@ -16296,7 +16307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>2183</v>
       </c>
@@ -16334,7 +16345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
         <v>2184</v>
       </c>
@@ -16363,7 +16374,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
         <v>2185</v>
       </c>
@@ -16401,7 +16412,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>2186</v>
       </c>
@@ -16439,7 +16450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>2187</v>
       </c>
@@ -16465,7 +16476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>2188</v>
       </c>
@@ -16503,7 +16514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>2189</v>
       </c>
@@ -16529,7 +16540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>2190</v>
       </c>
@@ -16555,7 +16566,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>2191</v>
       </c>
@@ -16581,7 +16592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>2192</v>
       </c>
@@ -16619,7 +16630,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>2193</v>
       </c>
@@ -16657,7 +16668,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>2194</v>
       </c>
@@ -16695,7 +16706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
         <v>2195</v>
       </c>
@@ -16723,11 +16734,11 @@
       <c r="K26">
         <v>31</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>3430</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
         <v>2196</v>
       </c>
@@ -16753,7 +16764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
         <v>2197</v>
       </c>
@@ -16791,7 +16802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
         <v>2198</v>
       </c>
@@ -16829,7 +16840,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
         <v>2199</v>
       </c>
@@ -16867,7 +16878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
         <v>2200</v>
       </c>
@@ -16905,7 +16916,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>2201</v>
       </c>
@@ -16934,7 +16945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
         <v>2202</v>
       </c>
@@ -16972,7 +16983,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
         <v>2203</v>
       </c>
@@ -17010,7 +17021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
         <v>2204</v>
       </c>
@@ -17051,7 +17062,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
         <v>2205</v>
       </c>
@@ -17089,7 +17100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
         <v>2206</v>
       </c>
@@ -17115,7 +17126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
         <v>2207</v>
       </c>
@@ -17153,7 +17164,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
         <v>2208</v>
       </c>
@@ -17182,7 +17193,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
         <v>2209</v>
       </c>
@@ -17208,7 +17219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
         <v>2210</v>
       </c>
@@ -17234,7 +17245,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
         <v>2211</v>
       </c>
@@ -17266,7 +17277,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
         <v>2212</v>
       </c>
@@ -17306,11 +17317,11 @@
       <c r="O43">
         <v>2</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="R43" t="s">
         <v>3346</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
         <v>2213</v>
       </c>
@@ -17336,7 +17347,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
         <v>2214</v>
       </c>
@@ -17362,7 +17373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
         <v>2215</v>
       </c>
@@ -17390,11 +17401,11 @@
       <c r="K46">
         <v>9</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="R46" t="s">
         <v>3347</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
         <v>2216</v>
       </c>
@@ -17432,7 +17443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
         <v>2217</v>
       </c>
@@ -17470,7 +17481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
         <v>2218</v>
       </c>
@@ -17496,7 +17507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
         <v>2219</v>
       </c>
@@ -17521,11 +17532,11 @@
       <c r="K50">
         <v>18</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="R50" t="s">
         <v>3348</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
         <v>2220</v>
       </c>
@@ -17563,7 +17574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
         <v>2221</v>
       </c>
@@ -17601,7 +17612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
         <v>2222</v>
       </c>
@@ -17639,7 +17650,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
         <v>2223</v>
       </c>
@@ -17665,7 +17676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
         <v>2224</v>
       </c>
@@ -17690,11 +17701,11 @@
       <c r="K55">
         <v>15</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="R55" t="s">
         <v>3349</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
         <v>2225</v>
       </c>
@@ -17734,8 +17745,11 @@
       <c r="O56">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:17">
+      <c r="P56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
         <v>2226</v>
       </c>
@@ -17776,7 +17790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
         <v>2227</v>
       </c>
@@ -17814,7 +17828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
         <v>2228</v>
       </c>
@@ -17854,11 +17868,11 @@
       <c r="O59">
         <v>15</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="R59" t="s">
         <v>3350</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
         <v>2229</v>
       </c>
@@ -17883,11 +17897,11 @@
       <c r="K60">
         <v>6</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="R60" t="s">
         <v>3351</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
         <v>2230</v>
       </c>
@@ -17925,7 +17939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:18">
       <c r="A62" t="s">
         <v>2231</v>
       </c>
@@ -17951,7 +17965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:18">
       <c r="A63" t="s">
         <v>2232</v>
       </c>
@@ -17989,7 +18003,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:18">
       <c r="A64" t="s">
         <v>2233</v>
       </c>
@@ -18557,7 +18571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:17">
       <c r="A81" t="s">
         <v>2250</v>
       </c>
@@ -18583,7 +18597,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:17">
       <c r="A82" t="s">
         <v>2251</v>
       </c>
@@ -18621,7 +18635,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:17">
       <c r="A83" t="s">
         <v>2252</v>
       </c>
@@ -18659,7 +18673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:17">
       <c r="A84" t="s">
         <v>2253</v>
       </c>
@@ -18685,7 +18699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:17">
       <c r="A85" t="s">
         <v>2254</v>
       </c>
@@ -18723,7 +18737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:17">
       <c r="A86" t="s">
         <v>2255</v>
       </c>
@@ -18761,7 +18775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:17">
       <c r="A87" t="s">
         <v>2256</v>
       </c>
@@ -18787,7 +18801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:17">
       <c r="A88" t="s">
         <v>2257</v>
       </c>
@@ -18813,7 +18827,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:17">
       <c r="A89" t="s">
         <v>2258</v>
       </c>
@@ -18851,7 +18865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:17">
       <c r="A90" t="s">
         <v>2259</v>
       </c>
@@ -18889,7 +18903,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:17">
       <c r="A91" t="s">
         <v>2260</v>
       </c>
@@ -18927,7 +18941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:17">
       <c r="A92" t="s">
         <v>2261</v>
       </c>
@@ -18964,11 +18978,11 @@
       <c r="O92">
         <v>22</v>
       </c>
-      <c r="P92" t="s">
+      <c r="Q92" t="s">
         <v>3352</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:17">
       <c r="A93" t="s">
         <v>2262</v>
       </c>
@@ -19006,7 +19020,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:17">
       <c r="A94" t="s">
         <v>2263</v>
       </c>
@@ -19044,7 +19058,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:17">
       <c r="A95" t="s">
         <v>2264</v>
       </c>
@@ -19082,7 +19096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:17">
       <c r="A96" t="s">
         <v>2265</v>
       </c>
@@ -19120,7 +19134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:18">
       <c r="A97" t="s">
         <v>2266</v>
       </c>
@@ -19146,7 +19160,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:18">
       <c r="A98" t="s">
         <v>2267</v>
       </c>
@@ -19184,7 +19198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:18">
       <c r="A99" t="s">
         <v>2268</v>
       </c>
@@ -19210,7 +19224,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:18">
       <c r="A100" t="s">
         <v>2269</v>
       </c>
@@ -19248,7 +19262,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:18">
       <c r="A101" t="s">
         <v>2270</v>
       </c>
@@ -19289,7 +19303,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:18">
       <c r="A102" t="s">
         <v>2271</v>
       </c>
@@ -19327,7 +19341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:18">
       <c r="A103" t="s">
         <v>2272</v>
       </c>
@@ -19365,7 +19379,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:18">
       <c r="A104" t="s">
         <v>2273</v>
       </c>
@@ -19402,11 +19416,11 @@
       <c r="O104">
         <v>31</v>
       </c>
-      <c r="Q104" t="s">
+      <c r="R104" t="s">
         <v>3429</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:18">
       <c r="A105" t="s">
         <v>2274</v>
       </c>
@@ -19444,7 +19458,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:18">
       <c r="A106" t="s">
         <v>2275</v>
       </c>
@@ -19482,7 +19496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:18">
       <c r="A107" t="s">
         <v>2276</v>
       </c>
@@ -19520,7 +19534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:17" s="1" customFormat="1">
+    <row r="108" spans="1:18" s="1" customFormat="1">
       <c r="A108" s="1" t="s">
         <v>2277</v>
       </c>
@@ -19546,7 +19560,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:18">
       <c r="A109" t="s">
         <v>2278</v>
       </c>
@@ -19584,7 +19598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:18">
       <c r="A110" t="s">
         <v>2279</v>
       </c>
@@ -19622,7 +19636,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:18">
       <c r="A111" t="s">
         <v>2280</v>
       </c>
@@ -19660,7 +19674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:18">
       <c r="A112" t="s">
         <v>2281</v>
       </c>
@@ -20186,7 +20200,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:17">
+    <row r="129" spans="1:18">
       <c r="A129" t="s">
         <v>2298</v>
       </c>
@@ -20212,7 +20226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:17">
+    <row r="130" spans="1:18">
       <c r="A130" t="s">
         <v>2299</v>
       </c>
@@ -20241,7 +20255,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="1:17">
+    <row r="131" spans="1:18">
       <c r="A131" t="s">
         <v>2300</v>
       </c>
@@ -20267,7 +20281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:17">
+    <row r="132" spans="1:18">
       <c r="A132" t="s">
         <v>2301</v>
       </c>
@@ -20296,7 +20310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:17">
+    <row r="133" spans="1:18">
       <c r="A133" t="s">
         <v>2302</v>
       </c>
@@ -20334,7 +20348,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="134" spans="1:17">
+    <row r="134" spans="1:18">
       <c r="A134" t="s">
         <v>2303</v>
       </c>
@@ -20371,11 +20385,11 @@
       <c r="O134">
         <v>3</v>
       </c>
-      <c r="Q134" t="s">
+      <c r="R134" t="s">
         <v>3353</v>
       </c>
     </row>
-    <row r="135" spans="1:17">
+    <row r="135" spans="1:18">
       <c r="A135" t="s">
         <v>2304</v>
       </c>
@@ -20413,7 +20427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:17">
+    <row r="136" spans="1:18">
       <c r="A136" t="s">
         <v>2305</v>
       </c>
@@ -20451,7 +20465,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:17">
+    <row r="137" spans="1:18">
       <c r="A137" t="s">
         <v>2306</v>
       </c>
@@ -20488,8 +20502,11 @@
       <c r="O137">
         <v>25</v>
       </c>
-    </row>
-    <row r="138" spans="1:17">
+      <c r="P137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18">
       <c r="A138" t="s">
         <v>2307</v>
       </c>
@@ -20515,7 +20532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:17">
+    <row r="139" spans="1:18">
       <c r="A139" t="s">
         <v>2308</v>
       </c>
@@ -20553,7 +20570,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:17">
+    <row r="140" spans="1:18">
       <c r="A140" t="s">
         <v>2309</v>
       </c>
@@ -20591,7 +20608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:17">
+    <row r="141" spans="1:18">
       <c r="A141" t="s">
         <v>2310</v>
       </c>
@@ -20629,7 +20646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:17">
+    <row r="142" spans="1:18">
       <c r="A142" t="s">
         <v>2311</v>
       </c>
@@ -20655,7 +20672,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:17">
+    <row r="143" spans="1:18">
       <c r="A143" t="s">
         <v>2312</v>
       </c>
@@ -20681,7 +20698,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="144" spans="1:17">
+    <row r="144" spans="1:18">
       <c r="A144" t="s">
         <v>2313</v>
       </c>
@@ -21782,7 +21799,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:17">
+    <row r="177" spans="1:18">
       <c r="A177" t="s">
         <v>2346</v>
       </c>
@@ -21823,7 +21840,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:17">
+    <row r="178" spans="1:18">
       <c r="A178" t="s">
         <v>2347</v>
       </c>
@@ -21861,7 +21878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:17">
+    <row r="179" spans="1:18">
       <c r="A179" t="s">
         <v>2348</v>
       </c>
@@ -21890,7 +21907,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="1:17">
+    <row r="180" spans="1:18">
       <c r="A180" t="s">
         <v>2349</v>
       </c>
@@ -21928,7 +21945,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:17">
+    <row r="181" spans="1:18">
       <c r="A181" t="s">
         <v>2350</v>
       </c>
@@ -21966,7 +21983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:17">
+    <row r="182" spans="1:18">
       <c r="A182" t="s">
         <v>2351</v>
       </c>
@@ -21994,11 +22011,11 @@
       <c r="K182">
         <v>18</v>
       </c>
-      <c r="Q182" t="s">
+      <c r="R182" t="s">
         <v>3428</v>
       </c>
     </row>
-    <row r="183" spans="1:17">
+    <row r="183" spans="1:18">
       <c r="A183" t="s">
         <v>2352</v>
       </c>
@@ -22024,7 +22041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:17">
+    <row r="184" spans="1:18">
       <c r="A184" t="s">
         <v>2353</v>
       </c>
@@ -22053,7 +22070,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:17">
+    <row r="185" spans="1:18">
       <c r="A185" t="s">
         <v>2354</v>
       </c>
@@ -22079,7 +22096,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="186" spans="1:17">
+    <row r="186" spans="1:18">
       <c r="A186" t="s">
         <v>2355</v>
       </c>
@@ -22105,7 +22122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:17">
+    <row r="187" spans="1:18">
       <c r="A187" t="s">
         <v>2356</v>
       </c>
@@ -22143,7 +22160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:17">
+    <row r="188" spans="1:18">
       <c r="A188" t="s">
         <v>2357</v>
       </c>
@@ -22169,7 +22186,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:17">
+    <row r="189" spans="1:18">
       <c r="A189" t="s">
         <v>2358</v>
       </c>
@@ -22210,7 +22227,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="1:17">
+    <row r="190" spans="1:18">
       <c r="A190" t="s">
         <v>2359</v>
       </c>
@@ -22236,7 +22253,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="191" spans="1:17">
+    <row r="191" spans="1:18">
       <c r="A191" t="s">
         <v>2360</v>
       </c>
@@ -22274,7 +22291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:17">
+    <row r="192" spans="1:18">
       <c r="A192" t="s">
         <v>2361</v>
       </c>
@@ -22315,7 +22332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:17">
+    <row r="193" spans="1:18">
       <c r="A193" t="s">
         <v>2362</v>
       </c>
@@ -22343,11 +22360,11 @@
       <c r="K193">
         <v>27</v>
       </c>
-      <c r="Q193" t="s">
+      <c r="R193" t="s">
         <v>3354</v>
       </c>
     </row>
-    <row r="194" spans="1:17">
+    <row r="194" spans="1:18">
       <c r="A194" t="s">
         <v>2363</v>
       </c>
@@ -22373,7 +22390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:17">
+    <row r="195" spans="1:18">
       <c r="A195" t="s">
         <v>2364</v>
       </c>
@@ -22411,7 +22428,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="196" spans="1:17">
+    <row r="196" spans="1:18">
       <c r="A196" t="s">
         <v>2365</v>
       </c>
@@ -22437,7 +22454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:17">
+    <row r="197" spans="1:18">
       <c r="A197" t="s">
         <v>2366</v>
       </c>
@@ -22475,7 +22492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:17">
+    <row r="198" spans="1:18">
       <c r="A198" t="s">
         <v>2367</v>
       </c>
@@ -22501,7 +22518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:17">
+    <row r="199" spans="1:18">
       <c r="A199" t="s">
         <v>2368</v>
       </c>
@@ -22527,7 +22544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:17">
+    <row r="200" spans="1:18">
       <c r="A200" t="s">
         <v>2369</v>
       </c>
@@ -22553,7 +22570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:17">
+    <row r="201" spans="1:18">
       <c r="A201" t="s">
         <v>2370</v>
       </c>
@@ -22593,8 +22610,11 @@
       <c r="O201">
         <v>13</v>
       </c>
-    </row>
-    <row r="202" spans="1:17">
+      <c r="P201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18">
       <c r="A202" t="s">
         <v>2371</v>
       </c>
@@ -22635,7 +22655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:17">
+    <row r="203" spans="1:18">
       <c r="A203" t="s">
         <v>2372</v>
       </c>
@@ -22676,7 +22696,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="204" spans="1:17">
+    <row r="204" spans="1:18">
       <c r="A204" t="s">
         <v>2373</v>
       </c>
@@ -22714,7 +22734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="205" spans="1:17">
+    <row r="205" spans="1:18">
       <c r="A205" t="s">
         <v>2374</v>
       </c>
@@ -22740,7 +22760,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="206" spans="1:17">
+    <row r="206" spans="1:18">
       <c r="A206" t="s">
         <v>2375</v>
       </c>
@@ -22766,7 +22786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:17">
+    <row r="207" spans="1:18">
       <c r="A207" t="s">
         <v>2376</v>
       </c>
@@ -22792,7 +22812,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="208" spans="1:17">
+    <row r="208" spans="1:18">
       <c r="A208" t="s">
         <v>2377</v>
       </c>
@@ -22818,7 +22838,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="209" spans="1:17">
+    <row r="209" spans="1:18">
       <c r="A209" t="s">
         <v>2378</v>
       </c>
@@ -22856,7 +22876,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:17">
+    <row r="210" spans="1:18">
       <c r="A210" t="s">
         <v>2379</v>
       </c>
@@ -22894,7 +22914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:17">
+    <row r="211" spans="1:18">
       <c r="A211" t="s">
         <v>2380</v>
       </c>
@@ -22931,11 +22951,11 @@
       <c r="O211">
         <v>18</v>
       </c>
-      <c r="Q211" t="s">
+      <c r="R211" t="s">
         <v>3355</v>
       </c>
     </row>
-    <row r="212" spans="1:17">
+    <row r="212" spans="1:18">
       <c r="A212" t="s">
         <v>2381</v>
       </c>
@@ -22963,11 +22983,11 @@
       <c r="O212">
         <v>15</v>
       </c>
-      <c r="P212" t="s">
+      <c r="Q212" t="s">
         <v>3415</v>
       </c>
     </row>
-    <row r="213" spans="1:17">
+    <row r="213" spans="1:18">
       <c r="A213" t="s">
         <v>2382</v>
       </c>
@@ -22996,7 +23016,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="214" spans="1:17">
+    <row r="214" spans="1:18">
       <c r="A214" t="s">
         <v>2383</v>
       </c>
@@ -23022,7 +23042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:17">
+    <row r="215" spans="1:18">
       <c r="A215" t="s">
         <v>2384</v>
       </c>
@@ -23060,7 +23080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:17">
+    <row r="216" spans="1:18">
       <c r="A216" t="s">
         <v>2385</v>
       </c>
@@ -23085,11 +23105,11 @@
       <c r="K216">
         <v>8</v>
       </c>
-      <c r="P216" t="s">
+      <c r="Q216" t="s">
         <v>3356</v>
       </c>
     </row>
-    <row r="217" spans="1:17">
+    <row r="217" spans="1:18">
       <c r="A217" t="s">
         <v>2386</v>
       </c>
@@ -23127,7 +23147,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:17">
+    <row r="218" spans="1:18">
       <c r="A218" t="s">
         <v>2387</v>
       </c>
@@ -23165,7 +23185,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="219" spans="1:17">
+    <row r="219" spans="1:18">
       <c r="A219" t="s">
         <v>2388</v>
       </c>
@@ -23191,7 +23211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="1:17">
+    <row r="220" spans="1:18">
       <c r="A220" t="s">
         <v>2389</v>
       </c>
@@ -23217,7 +23237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:17">
+    <row r="221" spans="1:18">
       <c r="A221" t="s">
         <v>2390</v>
       </c>
@@ -23243,7 +23263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="1:17">
+    <row r="222" spans="1:18">
       <c r="A222" t="s">
         <v>2391</v>
       </c>
@@ -23281,7 +23301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:17">
+    <row r="223" spans="1:18">
       <c r="A223" t="s">
         <v>2392</v>
       </c>
@@ -23307,7 +23327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:17">
+    <row r="224" spans="1:18">
       <c r="A224" t="s">
         <v>2393</v>
       </c>
@@ -23333,7 +23353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:17">
+    <row r="225" spans="1:18">
       <c r="A225" t="s">
         <v>2394</v>
       </c>
@@ -23371,7 +23391,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="1:17">
+    <row r="226" spans="1:18">
       <c r="A226" t="s">
         <v>2395</v>
       </c>
@@ -23396,11 +23416,11 @@
       <c r="K226">
         <v>15</v>
       </c>
-      <c r="Q226" t="s">
+      <c r="R226" t="s">
         <v>3427</v>
       </c>
     </row>
-    <row r="227" spans="1:17">
+    <row r="227" spans="1:18">
       <c r="A227" t="s">
         <v>2396</v>
       </c>
@@ -23438,7 +23458,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="1:17">
+    <row r="228" spans="1:18">
       <c r="A228" t="s">
         <v>2397</v>
       </c>
@@ -23476,7 +23496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:17">
+    <row r="229" spans="1:18">
       <c r="A229" t="s">
         <v>2398</v>
       </c>
@@ -23502,7 +23522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:17">
+    <row r="230" spans="1:18">
       <c r="A230" t="s">
         <v>2399</v>
       </c>
@@ -23531,7 +23551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:17">
+    <row r="231" spans="1:18">
       <c r="A231" t="s">
         <v>2400</v>
       </c>
@@ -23569,7 +23589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:17">
+    <row r="232" spans="1:18">
       <c r="A232" t="s">
         <v>2401</v>
       </c>
@@ -23607,7 +23627,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="233" spans="1:17">
+    <row r="233" spans="1:18">
       <c r="A233" t="s">
         <v>2402</v>
       </c>
@@ -23633,7 +23653,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="234" spans="1:17">
+    <row r="234" spans="1:18">
       <c r="A234" t="s">
         <v>2403</v>
       </c>
@@ -23671,7 +23691,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="235" spans="1:17">
+    <row r="235" spans="1:18">
       <c r="A235" t="s">
         <v>2404</v>
       </c>
@@ -23697,7 +23717,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="236" spans="1:17">
+    <row r="236" spans="1:18">
       <c r="A236" t="s">
         <v>2405</v>
       </c>
@@ -23738,7 +23758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="237" spans="1:17">
+    <row r="237" spans="1:18">
       <c r="A237" t="s">
         <v>2406</v>
       </c>
@@ -23764,7 +23784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="238" spans="1:17">
+    <row r="238" spans="1:18">
       <c r="A238" t="s">
         <v>2407</v>
       </c>
@@ -23802,7 +23822,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="239" spans="1:17">
+    <row r="239" spans="1:18">
       <c r="A239" t="s">
         <v>2408</v>
       </c>
@@ -23828,7 +23848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:17">
+    <row r="240" spans="1:18">
       <c r="A240" t="s">
         <v>2409</v>
       </c>
@@ -23857,7 +23877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:17">
+    <row r="241" spans="1:18">
       <c r="A241" t="s">
         <v>2410</v>
       </c>
@@ -23895,7 +23915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:17">
+    <row r="242" spans="1:18">
       <c r="A242" t="s">
         <v>2411</v>
       </c>
@@ -23935,11 +23955,14 @@
       <c r="O242">
         <v>30</v>
       </c>
-      <c r="Q242" t="s">
+      <c r="P242">
+        <v>1</v>
+      </c>
+      <c r="R242" t="s">
         <v>3357</v>
       </c>
     </row>
-    <row r="243" spans="1:17">
+    <row r="243" spans="1:18">
       <c r="A243" t="s">
         <v>2412</v>
       </c>
@@ -23977,7 +24000,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="244" spans="1:17">
+    <row r="244" spans="1:18">
       <c r="A244" t="s">
         <v>2413</v>
       </c>
@@ -24003,7 +24026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:17">
+    <row r="245" spans="1:18">
       <c r="A245" t="s">
         <v>2414</v>
       </c>
@@ -24041,7 +24064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="246" spans="1:17">
+    <row r="246" spans="1:18">
       <c r="A246" t="s">
         <v>2415</v>
       </c>
@@ -24070,7 +24093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:17">
+    <row r="247" spans="1:18">
       <c r="A247" t="s">
         <v>2416</v>
       </c>
@@ -24108,7 +24131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:17">
+    <row r="248" spans="1:18">
       <c r="A248" t="s">
         <v>2417</v>
       </c>
@@ -24146,7 +24169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:17">
+    <row r="249" spans="1:18">
       <c r="A249" t="s">
         <v>2418</v>
       </c>
@@ -24184,7 +24207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:17">
+    <row r="250" spans="1:18">
       <c r="A250" t="s">
         <v>2419</v>
       </c>
@@ -24210,7 +24233,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="251" spans="1:17">
+    <row r="251" spans="1:18">
       <c r="A251" t="s">
         <v>2420</v>
       </c>
@@ -24239,7 +24262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:17">
+    <row r="252" spans="1:18">
       <c r="A252" t="s">
         <v>2421</v>
       </c>
@@ -24268,7 +24291,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="253" spans="1:17">
+    <row r="253" spans="1:18">
       <c r="A253" t="s">
         <v>2422</v>
       </c>
@@ -24306,7 +24329,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="254" spans="1:17">
+    <row r="254" spans="1:18">
       <c r="A254" t="s">
         <v>2423</v>
       </c>
@@ -24332,7 +24355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:17">
+    <row r="255" spans="1:18">
       <c r="A255" t="s">
         <v>2424</v>
       </c>
@@ -24358,7 +24381,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="256" spans="1:17">
+    <row r="256" spans="1:18">
       <c r="A256" t="s">
         <v>2425</v>
       </c>
@@ -24384,7 +24407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:17">
+    <row r="257" spans="1:18">
       <c r="A257" t="s">
         <v>2426</v>
       </c>
@@ -24410,7 +24433,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="258" spans="1:17">
+    <row r="258" spans="1:18">
       <c r="A258" t="s">
         <v>2427</v>
       </c>
@@ -24448,7 +24471,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="259" spans="1:17">
+    <row r="259" spans="1:18">
       <c r="A259" t="s">
         <v>2428</v>
       </c>
@@ -24486,7 +24509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:17">
+    <row r="260" spans="1:18">
       <c r="A260" t="s">
         <v>2429</v>
       </c>
@@ -24524,7 +24547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:17">
+    <row r="261" spans="1:18">
       <c r="A261" t="s">
         <v>2430</v>
       </c>
@@ -24550,7 +24573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:17">
+    <row r="262" spans="1:18">
       <c r="A262" t="s">
         <v>2431</v>
       </c>
@@ -24591,7 +24614,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="263" spans="1:17">
+    <row r="263" spans="1:18">
       <c r="A263" t="s">
         <v>2432</v>
       </c>
@@ -24617,7 +24640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="264" spans="1:17">
+    <row r="264" spans="1:18">
       <c r="A264" t="s">
         <v>2433</v>
       </c>
@@ -24655,7 +24678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:17">
+    <row r="265" spans="1:18">
       <c r="A265" t="s">
         <v>2434</v>
       </c>
@@ -24681,7 +24704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="266" spans="1:17">
+    <row r="266" spans="1:18">
       <c r="A266" t="s">
         <v>2435</v>
       </c>
@@ -24719,7 +24742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="1:17">
+    <row r="267" spans="1:18">
       <c r="A267" t="s">
         <v>5136</v>
       </c>
@@ -24747,11 +24770,11 @@
       <c r="K267">
         <v>6</v>
       </c>
-      <c r="Q267" t="s">
+      <c r="R267" t="s">
         <v>5135</v>
       </c>
     </row>
-    <row r="268" spans="1:17">
+    <row r="268" spans="1:18">
       <c r="A268" t="s">
         <v>2436</v>
       </c>
@@ -24777,7 +24800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="269" spans="1:17">
+    <row r="269" spans="1:18">
       <c r="A269" t="s">
         <v>2437</v>
       </c>
@@ -24803,7 +24826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:17">
+    <row r="270" spans="1:18">
       <c r="A270" t="s">
         <v>2438</v>
       </c>
@@ -24829,7 +24852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="271" spans="1:17">
+    <row r="271" spans="1:18">
       <c r="A271" t="s">
         <v>2439</v>
       </c>
@@ -24867,7 +24890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:17">
+    <row r="272" spans="1:18">
       <c r="A272" t="s">
         <v>2440</v>
       </c>
@@ -24896,7 +24919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="273" spans="1:17">
+    <row r="273" spans="1:18">
       <c r="A273" t="s">
         <v>2441</v>
       </c>
@@ -24934,7 +24957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="1:17">
+    <row r="274" spans="1:18">
       <c r="A274" t="s">
         <v>2442</v>
       </c>
@@ -24972,7 +24995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:17">
+    <row r="275" spans="1:18">
       <c r="A275" t="s">
         <v>2443</v>
       </c>
@@ -24998,7 +25021,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="276" spans="1:17">
+    <row r="276" spans="1:18">
       <c r="A276" t="s">
         <v>2444</v>
       </c>
@@ -25027,7 +25050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="277" spans="1:17">
+    <row r="277" spans="1:18">
       <c r="A277" t="s">
         <v>2445</v>
       </c>
@@ -25065,7 +25088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:17">
+    <row r="278" spans="1:18">
       <c r="A278" t="s">
         <v>2446</v>
       </c>
@@ -25102,8 +25125,11 @@
       <c r="O278">
         <v>5</v>
       </c>
-    </row>
-    <row r="279" spans="1:17">
+      <c r="P278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:18">
       <c r="A279" t="s">
         <v>2447</v>
       </c>
@@ -25132,7 +25158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:17">
+    <row r="280" spans="1:18">
       <c r="A280" t="s">
         <v>2448</v>
       </c>
@@ -25173,7 +25199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:17">
+    <row r="281" spans="1:18">
       <c r="A281" t="s">
         <v>2449</v>
       </c>
@@ -25207,8 +25233,9 @@
       <c r="O281" s="1"/>
       <c r="P281" s="1"/>
       <c r="Q281" s="1"/>
-    </row>
-    <row r="282" spans="1:17">
+      <c r="R281" s="1"/>
+    </row>
+    <row r="282" spans="1:18">
       <c r="A282" t="s">
         <v>2450</v>
       </c>
@@ -25246,7 +25273,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="283" spans="1:17">
+    <row r="283" spans="1:18">
       <c r="A283" t="s">
         <v>2451</v>
       </c>
@@ -25272,7 +25299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="1:17">
+    <row r="284" spans="1:18">
       <c r="A284" t="s">
         <v>2452</v>
       </c>
@@ -25298,7 +25325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="285" spans="1:17">
+    <row r="285" spans="1:18">
       <c r="A285" t="s">
         <v>5142</v>
       </c>
@@ -25324,7 +25351,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="286" spans="1:17">
+    <row r="286" spans="1:18">
       <c r="A286" t="s">
         <v>2453</v>
       </c>
@@ -25362,7 +25389,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="287" spans="1:17">
+    <row r="287" spans="1:18">
       <c r="A287" t="s">
         <v>2454</v>
       </c>
@@ -25400,7 +25427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:17">
+    <row r="288" spans="1:18">
       <c r="A288" t="s">
         <v>2455</v>
       </c>
@@ -25429,7 +25456,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="289" spans="1:17">
+    <row r="289" spans="1:18">
       <c r="A289" t="s">
         <v>2456</v>
       </c>
@@ -25466,11 +25493,11 @@
       <c r="O289">
         <v>28</v>
       </c>
-      <c r="Q289" t="s">
+      <c r="R289" t="s">
         <v>3358</v>
       </c>
     </row>
-    <row r="290" spans="1:17">
+    <row r="290" spans="1:18">
       <c r="A290" t="s">
         <v>2457</v>
       </c>
@@ -25496,7 +25523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:17">
+    <row r="291" spans="1:18">
       <c r="A291" t="s">
         <v>2458</v>
       </c>
@@ -25525,7 +25552,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="292" spans="1:17">
+    <row r="292" spans="1:18">
       <c r="A292" t="s">
         <v>2459</v>
       </c>
@@ -25562,8 +25589,11 @@
       <c r="O292">
         <v>7</v>
       </c>
-    </row>
-    <row r="293" spans="1:17">
+      <c r="P292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18">
       <c r="A293" t="s">
         <v>2460</v>
       </c>
@@ -25592,7 +25622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="294" spans="1:17">
+    <row r="294" spans="1:18">
       <c r="A294" t="s">
         <v>2461</v>
       </c>
@@ -25630,7 +25660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="295" spans="1:17">
+    <row r="295" spans="1:18">
       <c r="A295" t="s">
         <v>2462</v>
       </c>
@@ -25656,7 +25686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="296" spans="1:17">
+    <row r="296" spans="1:18">
       <c r="A296" t="s">
         <v>2463</v>
       </c>
@@ -25694,7 +25724,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="297" spans="1:17">
+    <row r="297" spans="1:18">
       <c r="A297" t="s">
         <v>2464</v>
       </c>
@@ -25723,7 +25753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="298" spans="1:17">
+    <row r="298" spans="1:18">
       <c r="A298" t="s">
         <v>2465</v>
       </c>
@@ -25761,7 +25791,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="299" spans="1:17">
+    <row r="299" spans="1:18">
       <c r="A299" t="s">
         <v>2466</v>
       </c>
@@ -25799,7 +25829,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="300" spans="1:17">
+    <row r="300" spans="1:18">
       <c r="A300" t="s">
         <v>2467</v>
       </c>
@@ -25828,7 +25858,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="301" spans="1:17">
+    <row r="301" spans="1:18">
       <c r="A301" t="s">
         <v>2468</v>
       </c>
@@ -25869,7 +25899,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="302" spans="1:17">
+    <row r="302" spans="1:18">
       <c r="A302" t="s">
         <v>2469</v>
       </c>
@@ -25895,7 +25925,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="303" spans="1:17">
+    <row r="303" spans="1:18">
       <c r="A303" t="s">
         <v>2470</v>
       </c>
@@ -25921,7 +25951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="304" spans="1:17">
+    <row r="304" spans="1:18">
       <c r="A304" t="s">
         <v>2471</v>
       </c>
@@ -25947,7 +25977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="1:17">
+    <row r="305" spans="1:18">
       <c r="A305" t="s">
         <v>2472</v>
       </c>
@@ -25985,7 +26015,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="306" spans="1:17">
+    <row r="306" spans="1:18">
       <c r="A306" t="s">
         <v>2473</v>
       </c>
@@ -26022,11 +26052,11 @@
       <c r="O306">
         <v>13</v>
       </c>
-      <c r="Q306" t="s">
+      <c r="R306" t="s">
         <v>3359</v>
       </c>
     </row>
-    <row r="307" spans="1:17">
+    <row r="307" spans="1:18">
       <c r="A307" t="s">
         <v>2474</v>
       </c>
@@ -26064,7 +26094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="308" spans="1:17">
+    <row r="308" spans="1:18">
       <c r="A308" t="s">
         <v>2475</v>
       </c>
@@ -26093,7 +26123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:17">
+    <row r="309" spans="1:18">
       <c r="A309" t="s">
         <v>2476</v>
       </c>
@@ -26119,7 +26149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:17">
+    <row r="310" spans="1:18">
       <c r="A310" t="s">
         <v>5141</v>
       </c>
@@ -26144,11 +26174,11 @@
       <c r="K310">
         <v>28</v>
       </c>
-      <c r="Q310" t="s">
+      <c r="R310" t="s">
         <v>5140</v>
       </c>
     </row>
-    <row r="311" spans="1:17">
+    <row r="311" spans="1:18">
       <c r="A311" t="s">
         <v>2477</v>
       </c>
@@ -26186,7 +26216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="312" spans="1:17">
+    <row r="312" spans="1:18">
       <c r="A312" t="s">
         <v>2478</v>
       </c>
@@ -26224,7 +26254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:17">
+    <row r="313" spans="1:18">
       <c r="A313" t="s">
         <v>2479</v>
       </c>
@@ -26262,7 +26292,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="314" spans="1:17">
+    <row r="314" spans="1:18">
       <c r="A314" t="s">
         <v>2480</v>
       </c>
@@ -26288,7 +26318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:17">
+    <row r="315" spans="1:18">
       <c r="A315" t="s">
         <v>2481</v>
       </c>
@@ -26314,7 +26344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:17">
+    <row r="316" spans="1:18">
       <c r="A316" t="s">
         <v>2482</v>
       </c>
@@ -26340,7 +26370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:17">
+    <row r="317" spans="1:18">
       <c r="A317" t="s">
         <v>2483</v>
       </c>
@@ -26378,7 +26408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:17">
+    <row r="318" spans="1:18">
       <c r="A318" t="s">
         <v>2484</v>
       </c>
@@ -26416,7 +26446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:17">
+    <row r="319" spans="1:18">
       <c r="A319" t="s">
         <v>2485</v>
       </c>
@@ -26442,7 +26472,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="320" spans="1:17">
+    <row r="320" spans="1:18">
       <c r="A320" t="s">
         <v>2486</v>
       </c>
@@ -26468,7 +26498,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="321" spans="1:17">
+    <row r="321" spans="1:18">
       <c r="A321" t="s">
         <v>2487</v>
       </c>
@@ -26506,7 +26536,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="322" spans="1:17">
+    <row r="322" spans="1:18">
       <c r="A322" t="s">
         <v>2488</v>
       </c>
@@ -26544,7 +26574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:17">
+    <row r="323" spans="1:18">
       <c r="A323" t="s">
         <v>2489</v>
       </c>
@@ -26570,7 +26600,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="324" spans="1:17">
+    <row r="324" spans="1:18">
       <c r="A324" t="s">
         <v>2490</v>
       </c>
@@ -26611,7 +26641,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="325" spans="1:17">
+    <row r="325" spans="1:18">
       <c r="A325" t="s">
         <v>2491</v>
       </c>
@@ -26640,7 +26670,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="326" spans="1:17">
+    <row r="326" spans="1:18">
       <c r="A326" t="s">
         <v>2492</v>
       </c>
@@ -26666,7 +26696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:17">
+    <row r="327" spans="1:18">
       <c r="A327" t="s">
         <v>2493</v>
       </c>
@@ -26695,7 +26725,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="328" spans="1:17">
+    <row r="328" spans="1:18">
       <c r="A328" t="s">
         <v>2494</v>
       </c>
@@ -26733,7 +26763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="329" spans="1:17">
+    <row r="329" spans="1:18">
       <c r="A329" t="s">
         <v>2495</v>
       </c>
@@ -26762,7 +26792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="330" spans="1:17">
+    <row r="330" spans="1:18">
       <c r="A330" t="s">
         <v>2496</v>
       </c>
@@ -26791,7 +26821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:17">
+    <row r="331" spans="1:18">
       <c r="A331" t="s">
         <v>2497</v>
       </c>
@@ -26820,7 +26850,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="332" spans="1:17">
+    <row r="332" spans="1:18">
       <c r="A332" t="s">
         <v>2498</v>
       </c>
@@ -26846,7 +26876,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="333" spans="1:17">
+    <row r="333" spans="1:18">
       <c r="A333" t="s">
         <v>2499</v>
       </c>
@@ -26872,7 +26902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="1:17">
+    <row r="334" spans="1:18">
       <c r="A334" t="s">
         <v>2500</v>
       </c>
@@ -26901,7 +26931,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="335" spans="1:17">
+    <row r="335" spans="1:18">
       <c r="A335" t="s">
         <v>2501</v>
       </c>
@@ -26926,11 +26956,11 @@
       <c r="K335">
         <v>25</v>
       </c>
-      <c r="Q335" t="s">
+      <c r="R335" t="s">
         <v>3360</v>
       </c>
     </row>
-    <row r="336" spans="1:17">
+    <row r="336" spans="1:18">
       <c r="A336" t="s">
         <v>2502</v>
       </c>
@@ -26956,7 +26986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="1:17">
+    <row r="337" spans="1:18">
       <c r="A337" t="s">
         <v>2503</v>
       </c>
@@ -26997,7 +27027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="338" spans="1:17">
+    <row r="338" spans="1:18">
       <c r="A338" t="s">
         <v>2504</v>
       </c>
@@ -27035,7 +27065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="339" spans="1:17">
+    <row r="339" spans="1:18">
       <c r="A339" t="s">
         <v>2505</v>
       </c>
@@ -27061,7 +27091,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="340" spans="1:17">
+    <row r="340" spans="1:18">
       <c r="A340" t="s">
         <v>2506</v>
       </c>
@@ -27102,7 +27132,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="341" spans="1:17">
+    <row r="341" spans="1:18">
       <c r="A341" t="s">
         <v>2507</v>
       </c>
@@ -27128,7 +27158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:17">
+    <row r="342" spans="1:18">
       <c r="A342" t="s">
         <v>2508</v>
       </c>
@@ -27154,7 +27184,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="343" spans="1:17">
+    <row r="343" spans="1:18">
       <c r="A343" t="s">
         <v>2509</v>
       </c>
@@ -27180,7 +27210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="344" spans="1:17">
+    <row r="344" spans="1:18">
       <c r="A344" t="s">
         <v>2510</v>
       </c>
@@ -27206,7 +27236,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="345" spans="1:17">
+    <row r="345" spans="1:18">
       <c r="A345" t="s">
         <v>2511</v>
       </c>
@@ -27247,7 +27277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:17">
+    <row r="346" spans="1:18">
       <c r="A346" t="s">
         <v>2512</v>
       </c>
@@ -27287,11 +27317,11 @@
       <c r="O346">
         <v>24</v>
       </c>
-      <c r="Q346" t="s">
+      <c r="R346" t="s">
         <v>3426</v>
       </c>
     </row>
-    <row r="347" spans="1:17">
+    <row r="347" spans="1:18">
       <c r="A347" t="s">
         <v>2513</v>
       </c>
@@ -27317,7 +27347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:17">
+    <row r="348" spans="1:18">
       <c r="A348" t="s">
         <v>2514</v>
       </c>
@@ -27355,7 +27385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:17">
+    <row r="349" spans="1:18">
       <c r="A349" t="s">
         <v>2515</v>
       </c>
@@ -27396,7 +27426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:17">
+    <row r="350" spans="1:18">
       <c r="A350" t="s">
         <v>2516</v>
       </c>
@@ -27439,8 +27469,11 @@
       <c r="O350">
         <v>21</v>
       </c>
-    </row>
-    <row r="351" spans="1:17">
+      <c r="P350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:18">
       <c r="A351" t="s">
         <v>2517</v>
       </c>
@@ -27466,7 +27499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="352" spans="1:17">
+    <row r="352" spans="1:18">
       <c r="A352" t="s">
         <v>2518</v>
       </c>
@@ -27504,7 +27537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="353" spans="1:17">
+    <row r="353" spans="1:18">
       <c r="A353" t="s">
         <v>2519</v>
       </c>
@@ -27542,7 +27575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:17">
+    <row r="354" spans="1:18">
       <c r="A354" t="s">
         <v>2520</v>
       </c>
@@ -27580,7 +27613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="355" spans="1:17">
+    <row r="355" spans="1:18">
       <c r="A355" t="s">
         <v>2521</v>
       </c>
@@ -27618,7 +27651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="356" spans="1:17">
+    <row r="356" spans="1:18">
       <c r="A356" t="s">
         <v>2522</v>
       </c>
@@ -27656,7 +27689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:17">
+    <row r="357" spans="1:18">
       <c r="A357" t="s">
         <v>2523</v>
       </c>
@@ -27682,7 +27715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="358" spans="1:17">
+    <row r="358" spans="1:18">
       <c r="A358" t="s">
         <v>2524</v>
       </c>
@@ -27708,7 +27741,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="359" spans="1:17">
+    <row r="359" spans="1:18">
       <c r="A359" t="s">
         <v>2525</v>
       </c>
@@ -27746,7 +27779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="360" spans="1:17">
+    <row r="360" spans="1:18">
       <c r="A360" t="s">
         <v>2526</v>
       </c>
@@ -27774,11 +27807,11 @@
       <c r="O360">
         <v>30</v>
       </c>
-      <c r="Q360" t="s">
+      <c r="R360" t="s">
         <v>3361</v>
       </c>
     </row>
-    <row r="361" spans="1:17">
+    <row r="361" spans="1:18">
       <c r="A361" t="s">
         <v>2527</v>
       </c>
@@ -27818,11 +27851,11 @@
       <c r="O361">
         <v>18</v>
       </c>
-      <c r="Q361" t="s">
+      <c r="R361" t="s">
         <v>3362</v>
       </c>
     </row>
-    <row r="362" spans="1:17">
+    <row r="362" spans="1:18">
       <c r="A362" t="s">
         <v>2528</v>
       </c>
@@ -27848,7 +27881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="363" spans="1:17">
+    <row r="363" spans="1:18">
       <c r="A363" t="s">
         <v>2529</v>
       </c>
@@ -27874,7 +27907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="364" spans="1:17">
+    <row r="364" spans="1:18">
       <c r="A364" t="s">
         <v>2530</v>
       </c>
@@ -27900,7 +27933,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="365" spans="1:17">
+    <row r="365" spans="1:18">
       <c r="A365" t="s">
         <v>2531</v>
       </c>
@@ -27925,11 +27958,11 @@
       <c r="K365">
         <v>5</v>
       </c>
-      <c r="Q365" t="s">
+      <c r="R365" t="s">
         <v>3363</v>
       </c>
     </row>
-    <row r="366" spans="1:17">
+    <row r="366" spans="1:18">
       <c r="A366" t="s">
         <v>2532</v>
       </c>
@@ -27958,7 +27991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:17">
+    <row r="367" spans="1:18">
       <c r="A367" t="s">
         <v>2533</v>
       </c>
@@ -27983,11 +28016,11 @@
       <c r="K367">
         <v>7</v>
       </c>
-      <c r="Q367" t="s">
+      <c r="R367" t="s">
         <v>3364</v>
       </c>
     </row>
-    <row r="368" spans="1:17">
+    <row r="368" spans="1:18">
       <c r="A368" t="s">
         <v>2534</v>
       </c>
@@ -28013,7 +28046,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="369" spans="1:15">
+    <row r="369" spans="1:16">
       <c r="A369" t="s">
         <v>2535</v>
       </c>
@@ -28039,7 +28072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="370" spans="1:15">
+    <row r="370" spans="1:16">
       <c r="A370" t="s">
         <v>2536</v>
       </c>
@@ -28068,7 +28101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:15">
+    <row r="371" spans="1:16">
       <c r="A371" t="s">
         <v>2537</v>
       </c>
@@ -28094,7 +28127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="372" spans="1:15">
+    <row r="372" spans="1:16">
       <c r="A372" t="s">
         <v>2538</v>
       </c>
@@ -28123,7 +28156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="373" spans="1:15">
+    <row r="373" spans="1:16">
       <c r="A373" t="s">
         <v>2539</v>
       </c>
@@ -28149,7 +28182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:15">
+    <row r="374" spans="1:16">
       <c r="A374" t="s">
         <v>2540</v>
       </c>
@@ -28186,8 +28219,11 @@
       <c r="O374">
         <v>22</v>
       </c>
-    </row>
-    <row r="375" spans="1:15">
+      <c r="P374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16">
       <c r="A375" t="s">
         <v>2541</v>
       </c>
@@ -28213,7 +28249,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="376" spans="1:15">
+    <row r="376" spans="1:16">
       <c r="A376" t="s">
         <v>2542</v>
       </c>
@@ -28251,7 +28287,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="377" spans="1:15">
+    <row r="377" spans="1:16">
       <c r="A377" t="s">
         <v>2543</v>
       </c>
@@ -28289,7 +28325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:15">
+    <row r="378" spans="1:16">
       <c r="A378" t="s">
         <v>2544</v>
       </c>
@@ -28327,7 +28363,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="379" spans="1:15">
+    <row r="379" spans="1:16">
       <c r="A379" t="s">
         <v>2545</v>
       </c>
@@ -28353,7 +28389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="380" spans="1:15">
+    <row r="380" spans="1:16">
       <c r="A380" t="s">
         <v>2546</v>
       </c>
@@ -28391,7 +28427,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="381" spans="1:15">
+    <row r="381" spans="1:16">
       <c r="A381" t="s">
         <v>2547</v>
       </c>
@@ -28429,7 +28465,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="382" spans="1:15">
+    <row r="382" spans="1:16">
       <c r="A382" t="s">
         <v>2548</v>
       </c>
@@ -28455,7 +28491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="383" spans="1:15">
+    <row r="383" spans="1:16">
       <c r="A383" t="s">
         <v>2549</v>
       </c>
@@ -28481,7 +28517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="384" spans="1:15">
+    <row r="384" spans="1:16">
       <c r="A384" t="s">
         <v>2550</v>
       </c>
@@ -28510,7 +28546,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="385" spans="1:17">
+    <row r="385" spans="1:18">
       <c r="A385" t="s">
         <v>2551</v>
       </c>
@@ -28536,7 +28572,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="386" spans="1:17">
+    <row r="386" spans="1:18">
       <c r="A386" t="s">
         <v>2552</v>
       </c>
@@ -28562,7 +28598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="387" spans="1:17">
+    <row r="387" spans="1:18">
       <c r="A387" t="s">
         <v>2553</v>
       </c>
@@ -28575,6 +28611,9 @@
       <c r="D387" t="s">
         <v>103</v>
       </c>
+      <c r="E387" t="s">
+        <v>61</v>
+      </c>
       <c r="H387" s="2" t="s">
         <v>3785</v>
       </c>
@@ -28599,11 +28638,14 @@
       <c r="O387">
         <v>28</v>
       </c>
-      <c r="Q387" t="s">
+      <c r="P387">
+        <v>1</v>
+      </c>
+      <c r="R387" t="s">
         <v>3365</v>
       </c>
     </row>
-    <row r="388" spans="1:17">
+    <row r="388" spans="1:18">
       <c r="A388" t="s">
         <v>2554</v>
       </c>
@@ -28647,7 +28689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:17">
+    <row r="389" spans="1:18">
       <c r="A389" t="s">
         <v>2555</v>
       </c>
@@ -28673,7 +28715,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="390" spans="1:17">
+    <row r="390" spans="1:18">
       <c r="A390" t="s">
         <v>2556</v>
       </c>
@@ -28702,7 +28744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="391" spans="1:17">
+    <row r="391" spans="1:18">
       <c r="A391" t="s">
         <v>2557</v>
       </c>
@@ -28740,7 +28782,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="392" spans="1:17">
+    <row r="392" spans="1:18">
       <c r="A392" t="s">
         <v>2558</v>
       </c>
@@ -28778,7 +28820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:17">
+    <row r="393" spans="1:18">
       <c r="A393" t="s">
         <v>2559</v>
       </c>
@@ -28816,7 +28858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="1:17">
+    <row r="394" spans="1:18">
       <c r="A394" t="s">
         <v>2560</v>
       </c>
@@ -28854,7 +28896,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="395" spans="1:17">
+    <row r="395" spans="1:18">
       <c r="A395" t="s">
         <v>2561</v>
       </c>
@@ -28892,7 +28934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="396" spans="1:17">
+    <row r="396" spans="1:18">
       <c r="A396" t="s">
         <v>2562</v>
       </c>
@@ -28921,7 +28963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="397" spans="1:17">
+    <row r="397" spans="1:18">
       <c r="A397" t="s">
         <v>2563</v>
       </c>
@@ -28959,7 +29001,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="398" spans="1:17">
+    <row r="398" spans="1:18">
       <c r="A398" t="s">
         <v>2564</v>
       </c>
@@ -28997,7 +29039,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="399" spans="1:17">
+    <row r="399" spans="1:18">
       <c r="A399" t="s">
         <v>2565</v>
       </c>
@@ -29035,7 +29077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="400" spans="1:17">
+    <row r="400" spans="1:18">
       <c r="A400" t="s">
         <v>2566</v>
       </c>
@@ -29076,7 +29118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:15">
+    <row r="401" spans="1:16">
       <c r="A401" t="s">
         <v>2567</v>
       </c>
@@ -29104,8 +29146,11 @@
       <c r="K401">
         <v>21</v>
       </c>
-    </row>
-    <row r="402" spans="1:15">
+      <c r="P401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:16">
       <c r="A402" t="s">
         <v>2568</v>
       </c>
@@ -29143,7 +29188,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="403" spans="1:15">
+    <row r="403" spans="1:16">
       <c r="A403" t="s">
         <v>2569</v>
       </c>
@@ -29169,7 +29214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="404" spans="1:15">
+    <row r="404" spans="1:16">
       <c r="A404" t="s">
         <v>2570</v>
       </c>
@@ -29195,7 +29240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="405" spans="1:15">
+    <row r="405" spans="1:16">
       <c r="A405" t="s">
         <v>2571</v>
       </c>
@@ -29233,7 +29278,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="406" spans="1:15">
+    <row r="406" spans="1:16">
       <c r="A406" t="s">
         <v>2572</v>
       </c>
@@ -29262,7 +29307,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="407" spans="1:15">
+    <row r="407" spans="1:16">
       <c r="A407" t="s">
         <v>2573</v>
       </c>
@@ -29303,7 +29348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="408" spans="1:15">
+    <row r="408" spans="1:16">
       <c r="A408" t="s">
         <v>2574</v>
       </c>
@@ -29329,7 +29374,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="409" spans="1:15">
+    <row r="409" spans="1:16">
       <c r="A409" t="s">
         <v>2575</v>
       </c>
@@ -29367,7 +29412,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="410" spans="1:15">
+    <row r="410" spans="1:16">
       <c r="A410" t="s">
         <v>2576</v>
       </c>
@@ -29405,7 +29450,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="411" spans="1:15">
+    <row r="411" spans="1:16">
       <c r="A411" t="s">
         <v>2577</v>
       </c>
@@ -29443,7 +29488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="412" spans="1:15">
+    <row r="412" spans="1:16">
       <c r="A412" t="s">
         <v>2578</v>
       </c>
@@ -29484,7 +29529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="413" spans="1:15">
+    <row r="413" spans="1:16">
       <c r="A413" t="s">
         <v>2579</v>
       </c>
@@ -29513,7 +29558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="1:15">
+    <row r="414" spans="1:16">
       <c r="A414" t="s">
         <v>2580</v>
       </c>
@@ -29551,7 +29596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="415" spans="1:15">
+    <row r="415" spans="1:16">
       <c r="A415" t="s">
         <v>2581</v>
       </c>
@@ -29577,7 +29622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="416" spans="1:15">
+    <row r="416" spans="1:16">
       <c r="A416" t="s">
         <v>2582</v>
       </c>
@@ -29615,7 +29660,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="417" spans="1:17">
+    <row r="417" spans="1:18">
       <c r="A417" t="s">
         <v>2583</v>
       </c>
@@ -29641,7 +29686,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="418" spans="1:17">
+    <row r="418" spans="1:18">
       <c r="A418" t="s">
         <v>2584</v>
       </c>
@@ -29670,7 +29715,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="419" spans="1:17">
+    <row r="419" spans="1:18">
       <c r="A419" t="s">
         <v>2585</v>
       </c>
@@ -29708,7 +29753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:17">
+    <row r="420" spans="1:18">
       <c r="A420" t="s">
         <v>2586</v>
       </c>
@@ -29746,7 +29791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="421" spans="1:17">
+    <row r="421" spans="1:18">
       <c r="A421" t="s">
         <v>2587</v>
       </c>
@@ -29774,11 +29819,11 @@
       <c r="K421">
         <v>5</v>
       </c>
-      <c r="Q421" t="s">
+      <c r="R421" t="s">
         <v>3366</v>
       </c>
     </row>
-    <row r="422" spans="1:17">
+    <row r="422" spans="1:18">
       <c r="A422" t="s">
         <v>2588</v>
       </c>
@@ -29804,7 +29849,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="423" spans="1:17">
+    <row r="423" spans="1:18">
       <c r="A423" t="s">
         <v>2589</v>
       </c>
@@ -29842,7 +29887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="424" spans="1:17">
+    <row r="424" spans="1:18">
       <c r="A424" t="s">
         <v>2590</v>
       </c>
@@ -29868,7 +29913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="425" spans="1:17">
+    <row r="425" spans="1:18">
       <c r="A425" t="s">
         <v>2591</v>
       </c>
@@ -29894,7 +29939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="426" spans="1:17">
+    <row r="426" spans="1:18">
       <c r="A426" t="s">
         <v>2592</v>
       </c>
@@ -29920,7 +29965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="427" spans="1:17">
+    <row r="427" spans="1:18">
       <c r="A427" t="s">
         <v>2593</v>
       </c>
@@ -29946,7 +29991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="428" spans="1:17">
+    <row r="428" spans="1:18">
       <c r="A428" t="s">
         <v>2594</v>
       </c>
@@ -29987,7 +30032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:17">
+    <row r="429" spans="1:18">
       <c r="A429" t="s">
         <v>2595</v>
       </c>
@@ -30013,7 +30058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="430" spans="1:17">
+    <row r="430" spans="1:18">
       <c r="A430" t="s">
         <v>2596</v>
       </c>
@@ -30039,7 +30084,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="431" spans="1:17">
+    <row r="431" spans="1:18">
       <c r="A431" t="s">
         <v>2597</v>
       </c>
@@ -30065,7 +30110,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="432" spans="1:17">
+    <row r="432" spans="1:18">
       <c r="A432" t="s">
         <v>2598</v>
       </c>
@@ -30103,7 +30148,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="433" spans="1:15">
+    <row r="433" spans="1:16">
       <c r="A433" t="s">
         <v>2599</v>
       </c>
@@ -30141,7 +30186,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="434" spans="1:15">
+    <row r="434" spans="1:16">
       <c r="A434" t="s">
         <v>2600</v>
       </c>
@@ -30170,7 +30215,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="435" spans="1:15">
+    <row r="435" spans="1:16">
       <c r="A435" t="s">
         <v>2601</v>
       </c>
@@ -30196,7 +30241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="436" spans="1:15">
+    <row r="436" spans="1:16">
       <c r="A436" t="s">
         <v>2602</v>
       </c>
@@ -30225,7 +30270,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="437" spans="1:15">
+    <row r="437" spans="1:16">
       <c r="A437" t="s">
         <v>2603</v>
       </c>
@@ -30263,7 +30308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="438" spans="1:15">
+    <row r="438" spans="1:16">
       <c r="A438" t="s">
         <v>2604</v>
       </c>
@@ -30289,7 +30334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="439" spans="1:15">
+    <row r="439" spans="1:16">
       <c r="A439" t="s">
         <v>2605</v>
       </c>
@@ -30327,7 +30372,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="440" spans="1:15">
+    <row r="440" spans="1:16">
       <c r="A440" t="s">
         <v>2606</v>
       </c>
@@ -30353,7 +30398,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="441" spans="1:15">
+    <row r="441" spans="1:16">
       <c r="A441" t="s">
         <v>2607</v>
       </c>
@@ -30391,7 +30436,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="442" spans="1:15">
+    <row r="442" spans="1:16">
       <c r="A442" t="s">
         <v>2608</v>
       </c>
@@ -30416,8 +30461,11 @@
       <c r="K442">
         <v>29</v>
       </c>
-    </row>
-    <row r="443" spans="1:15">
+      <c r="P442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:16">
       <c r="A443" t="s">
         <v>2609</v>
       </c>
@@ -30455,7 +30503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="444" spans="1:15">
+    <row r="444" spans="1:16">
       <c r="A444" t="s">
         <v>2610</v>
       </c>
@@ -30481,7 +30529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="445" spans="1:15">
+    <row r="445" spans="1:16">
       <c r="A445" t="s">
         <v>2611</v>
       </c>
@@ -30519,7 +30567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="446" spans="1:15">
+    <row r="446" spans="1:16">
       <c r="A446" t="s">
         <v>2612</v>
       </c>
@@ -30557,7 +30605,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="447" spans="1:15">
+    <row r="447" spans="1:16">
       <c r="A447" t="s">
         <v>2613</v>
       </c>
@@ -30583,7 +30631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="448" spans="1:15">
+    <row r="448" spans="1:16">
       <c r="A448" t="s">
         <v>2614</v>
       </c>
@@ -30621,7 +30669,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="449" spans="1:17">
+    <row r="449" spans="1:18">
       <c r="A449" t="s">
         <v>2615</v>
       </c>
@@ -30659,7 +30707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="450" spans="1:17">
+    <row r="450" spans="1:18">
       <c r="A450" t="s">
         <v>2616</v>
       </c>
@@ -30684,11 +30732,11 @@
       <c r="K450" s="1">
         <v>12</v>
       </c>
-      <c r="Q450" t="s">
+      <c r="R450" t="s">
         <v>3367</v>
       </c>
     </row>
-    <row r="451" spans="1:17">
+    <row r="451" spans="1:18">
       <c r="A451" t="s">
         <v>2617</v>
       </c>
@@ -30726,7 +30774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:17">
+    <row r="452" spans="1:18">
       <c r="A452" t="s">
         <v>2618</v>
       </c>
@@ -30763,8 +30811,11 @@
       <c r="O452">
         <v>19</v>
       </c>
-    </row>
-    <row r="453" spans="1:17">
+      <c r="P452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:18">
       <c r="A453" t="s">
         <v>2619</v>
       </c>
@@ -30789,11 +30840,11 @@
       <c r="K453">
         <v>17</v>
       </c>
-      <c r="Q453" t="s">
+      <c r="R453" t="s">
         <v>3368</v>
       </c>
     </row>
-    <row r="454" spans="1:17">
+    <row r="454" spans="1:18">
       <c r="A454" t="s">
         <v>2620</v>
       </c>
@@ -30819,7 +30870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="455" spans="1:17">
+    <row r="455" spans="1:18">
       <c r="A455" t="s">
         <v>2621</v>
       </c>
@@ -30845,7 +30896,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="456" spans="1:17">
+    <row r="456" spans="1:18">
       <c r="A456" t="s">
         <v>2622</v>
       </c>
@@ -30883,7 +30934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="457" spans="1:17">
+    <row r="457" spans="1:18">
       <c r="A457" t="s">
         <v>2623</v>
       </c>
@@ -30924,7 +30975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="458" spans="1:17">
+    <row r="458" spans="1:18">
       <c r="A458" t="s">
         <v>2624</v>
       </c>
@@ -30950,7 +31001,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="459" spans="1:17">
+    <row r="459" spans="1:18">
       <c r="A459" t="s">
         <v>2625</v>
       </c>
@@ -30988,7 +31039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="460" spans="1:17">
+    <row r="460" spans="1:18">
       <c r="A460" t="s">
         <v>2626</v>
       </c>
@@ -31013,11 +31064,11 @@
       <c r="K460">
         <v>5</v>
       </c>
-      <c r="Q460" t="s">
+      <c r="R460" t="s">
         <v>3425</v>
       </c>
     </row>
-    <row r="461" spans="1:17">
+    <row r="461" spans="1:18">
       <c r="A461" t="s">
         <v>2627</v>
       </c>
@@ -31055,7 +31106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="462" spans="1:17">
+    <row r="462" spans="1:18">
       <c r="A462" t="s">
         <v>2628</v>
       </c>
@@ -31093,7 +31144,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="463" spans="1:17">
+    <row r="463" spans="1:18">
       <c r="A463" t="s">
         <v>2629</v>
       </c>
@@ -31122,7 +31173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:17">
+    <row r="464" spans="1:18">
       <c r="A464" t="s">
         <v>2630</v>
       </c>
@@ -31684,7 +31735,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="481" spans="1:17">
+    <row r="481" spans="1:18">
       <c r="A481" t="s">
         <v>2647</v>
       </c>
@@ -31710,7 +31761,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="482" spans="1:17">
+    <row r="482" spans="1:18">
       <c r="A482" t="s">
         <v>2648</v>
       </c>
@@ -31748,7 +31799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="483" spans="1:17">
+    <row r="483" spans="1:18">
       <c r="A483" t="s">
         <v>2649</v>
       </c>
@@ -31774,7 +31825,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="484" spans="1:17">
+    <row r="484" spans="1:18">
       <c r="A484" t="s">
         <v>2650</v>
       </c>
@@ -31803,7 +31854,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="485" spans="1:17">
+    <row r="485" spans="1:18">
       <c r="A485" t="s">
         <v>2651</v>
       </c>
@@ -31841,7 +31892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="486" spans="1:17">
+    <row r="486" spans="1:18">
       <c r="A486" t="s">
         <v>2652</v>
       </c>
@@ -31879,7 +31930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="487" spans="1:17">
+    <row r="487" spans="1:18">
       <c r="A487" t="s">
         <v>2653</v>
       </c>
@@ -31917,7 +31968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="488" spans="1:17">
+    <row r="488" spans="1:18">
       <c r="A488" t="s">
         <v>2654</v>
       </c>
@@ -31955,7 +32006,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="489" spans="1:17">
+    <row r="489" spans="1:18">
       <c r="A489" t="s">
         <v>2655</v>
       </c>
@@ -31980,11 +32031,11 @@
       <c r="K489">
         <v>25</v>
       </c>
-      <c r="Q489" t="s">
+      <c r="R489" t="s">
         <v>3369</v>
       </c>
     </row>
-    <row r="490" spans="1:17">
+    <row r="490" spans="1:18">
       <c r="A490" t="s">
         <v>2656</v>
       </c>
@@ -32013,7 +32064,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="491" spans="1:17">
+    <row r="491" spans="1:18">
       <c r="A491" t="s">
         <v>2657</v>
       </c>
@@ -32039,7 +32090,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="492" spans="1:17">
+    <row r="492" spans="1:18">
       <c r="A492" t="s">
         <v>2658</v>
       </c>
@@ -32077,7 +32128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="493" spans="1:17">
+    <row r="493" spans="1:18">
       <c r="A493" t="s">
         <v>2659</v>
       </c>
@@ -32106,7 +32157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="494" spans="1:17">
+    <row r="494" spans="1:18">
       <c r="A494" t="s">
         <v>2660</v>
       </c>
@@ -32144,7 +32195,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="495" spans="1:17">
+    <row r="495" spans="1:18">
       <c r="A495" t="s">
         <v>2661</v>
       </c>
@@ -32170,7 +32221,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="496" spans="1:17">
+    <row r="496" spans="1:18">
       <c r="A496" t="s">
         <v>2662</v>
       </c>
@@ -32694,7 +32745,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="513" spans="1:15">
+    <row r="513" spans="1:16">
       <c r="A513" t="s">
         <v>2677</v>
       </c>
@@ -32722,8 +32773,11 @@
       <c r="K513">
         <v>9</v>
       </c>
-    </row>
-    <row r="514" spans="1:15">
+      <c r="P513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:16">
       <c r="A514" t="s">
         <v>2678</v>
       </c>
@@ -32761,7 +32815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="515" spans="1:15">
+    <row r="515" spans="1:16">
       <c r="A515" t="s">
         <v>2679</v>
       </c>
@@ -32787,7 +32841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:15">
+    <row r="516" spans="1:16">
       <c r="A516" t="s">
         <v>2680</v>
       </c>
@@ -32825,7 +32879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:15">
+    <row r="517" spans="1:16">
       <c r="A517" t="s">
         <v>2681</v>
       </c>
@@ -32863,7 +32917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="518" spans="1:15">
+    <row r="518" spans="1:16">
       <c r="A518" t="s">
         <v>2682</v>
       </c>
@@ -32892,7 +32946,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="519" spans="1:15">
+    <row r="519" spans="1:16">
       <c r="A519" t="s">
         <v>2683</v>
       </c>
@@ -32918,7 +32972,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="520" spans="1:15">
+    <row r="520" spans="1:16">
       <c r="A520" t="s">
         <v>2684</v>
       </c>
@@ -32947,7 +33001,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="521" spans="1:15">
+    <row r="521" spans="1:16">
       <c r="A521" t="s">
         <v>2685</v>
       </c>
@@ -32985,7 +33039,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="522" spans="1:15">
+    <row r="522" spans="1:16">
       <c r="A522" t="s">
         <v>2686</v>
       </c>
@@ -33023,7 +33077,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="523" spans="1:15">
+    <row r="523" spans="1:16">
       <c r="A523" t="s">
         <v>2687</v>
       </c>
@@ -33049,7 +33103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="524" spans="1:15">
+    <row r="524" spans="1:16">
       <c r="A524" t="s">
         <v>2688</v>
       </c>
@@ -33075,7 +33129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="525" spans="1:15">
+    <row r="525" spans="1:16">
       <c r="A525" t="s">
         <v>2689</v>
       </c>
@@ -33101,7 +33155,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="526" spans="1:15">
+    <row r="526" spans="1:16">
       <c r="A526" t="s">
         <v>2690</v>
       </c>
@@ -33127,7 +33181,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="527" spans="1:15" s="1" customFormat="1">
+    <row r="527" spans="1:16" s="1" customFormat="1">
       <c r="A527" s="1" t="s">
         <v>2691</v>
       </c>
@@ -33165,7 +33219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="528" spans="1:15">
+    <row r="528" spans="1:16">
       <c r="A528" t="s">
         <v>2692</v>
       </c>
@@ -33191,7 +33245,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="529" spans="1:17">
+    <row r="529" spans="1:18">
       <c r="A529" t="s">
         <v>2693</v>
       </c>
@@ -33216,11 +33270,11 @@
       <c r="K529">
         <v>4</v>
       </c>
-      <c r="Q529" t="s">
+      <c r="R529" t="s">
         <v>3370</v>
       </c>
     </row>
-    <row r="530" spans="1:17">
+    <row r="530" spans="1:18">
       <c r="A530" t="s">
         <v>2694</v>
       </c>
@@ -33258,7 +33312,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="531" spans="1:17">
+    <row r="531" spans="1:18">
       <c r="A531" t="s">
         <v>2695</v>
       </c>
@@ -33296,7 +33350,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="532" spans="1:17">
+    <row r="532" spans="1:18">
       <c r="A532" t="s">
         <v>2696</v>
       </c>
@@ -33321,11 +33375,11 @@
       <c r="K532">
         <v>4</v>
       </c>
-      <c r="Q532" t="s">
+      <c r="R532" t="s">
         <v>3371</v>
       </c>
     </row>
-    <row r="533" spans="1:17">
+    <row r="533" spans="1:18">
       <c r="A533" t="s">
         <v>2697</v>
       </c>
@@ -33363,7 +33417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="534" spans="1:17">
+    <row r="534" spans="1:18">
       <c r="A534" t="s">
         <v>2698</v>
       </c>
@@ -33388,11 +33442,11 @@
       <c r="K534">
         <v>1</v>
       </c>
-      <c r="Q534" t="s">
+      <c r="R534" t="s">
         <v>3372</v>
       </c>
     </row>
-    <row r="535" spans="1:17">
+    <row r="535" spans="1:18">
       <c r="A535" t="s">
         <v>2699</v>
       </c>
@@ -33418,7 +33472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="536" spans="1:17">
+    <row r="536" spans="1:18">
       <c r="A536" t="s">
         <v>2700</v>
       </c>
@@ -33444,7 +33498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="537" spans="1:17">
+    <row r="537" spans="1:18">
       <c r="A537" t="s">
         <v>2701</v>
       </c>
@@ -33485,7 +33539,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="538" spans="1:17">
+    <row r="538" spans="1:18">
       <c r="A538" t="s">
         <v>2702</v>
       </c>
@@ -33511,7 +33565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="539" spans="1:17">
+    <row r="539" spans="1:18">
       <c r="A539" t="s">
         <v>2703</v>
       </c>
@@ -33552,7 +33606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="540" spans="1:17">
+    <row r="540" spans="1:18">
       <c r="A540" t="s">
         <v>2704</v>
       </c>
@@ -33592,11 +33646,11 @@
       <c r="O540">
         <v>31</v>
       </c>
-      <c r="Q540" t="s">
+      <c r="R540" t="s">
         <v>3373</v>
       </c>
     </row>
-    <row r="541" spans="1:17">
+    <row r="541" spans="1:18">
       <c r="A541" t="s">
         <v>2705</v>
       </c>
@@ -33622,7 +33676,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="542" spans="1:17">
+    <row r="542" spans="1:18">
       <c r="A542" t="s">
         <v>2706</v>
       </c>
@@ -33651,7 +33705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="543" spans="1:17">
+    <row r="543" spans="1:18">
       <c r="A543" t="s">
         <v>2707</v>
       </c>
@@ -33689,7 +33743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="544" spans="1:17">
+    <row r="544" spans="1:18">
       <c r="A544" t="s">
         <v>2708</v>
       </c>
@@ -33726,11 +33780,14 @@
       <c r="O544">
         <v>19</v>
       </c>
-      <c r="P544" t="s">
+      <c r="P544">
+        <v>1</v>
+      </c>
+      <c r="Q544" t="s">
         <v>3374</v>
       </c>
     </row>
-    <row r="545" spans="1:17">
+    <row r="545" spans="1:18">
       <c r="A545" t="s">
         <v>2709</v>
       </c>
@@ -33768,7 +33825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:17">
+    <row r="546" spans="1:18">
       <c r="A546" t="s">
         <v>2710</v>
       </c>
@@ -33806,7 +33863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="547" spans="1:17">
+    <row r="547" spans="1:18">
       <c r="A547" t="s">
         <v>2711</v>
       </c>
@@ -33832,7 +33889,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="548" spans="1:17">
+    <row r="548" spans="1:18">
       <c r="A548" t="s">
         <v>2712</v>
       </c>
@@ -33857,8 +33914,11 @@
       <c r="K548">
         <v>26</v>
       </c>
-    </row>
-    <row r="549" spans="1:17">
+      <c r="P548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:18">
       <c r="A549" t="s">
         <v>2713</v>
       </c>
@@ -33884,7 +33944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="550" spans="1:17">
+    <row r="550" spans="1:18">
       <c r="A550" t="s">
         <v>2714</v>
       </c>
@@ -33909,11 +33969,11 @@
       <c r="K550">
         <v>28</v>
       </c>
-      <c r="Q550" t="s">
+      <c r="R550" t="s">
         <v>3375</v>
       </c>
     </row>
-    <row r="551" spans="1:17">
+    <row r="551" spans="1:18">
       <c r="A551" t="s">
         <v>2715</v>
       </c>
@@ -33942,7 +34002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="552" spans="1:17">
+    <row r="552" spans="1:18">
       <c r="A552" t="s">
         <v>2716</v>
       </c>
@@ -33980,7 +34040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="553" spans="1:17">
+    <row r="553" spans="1:18">
       <c r="A553" t="s">
         <v>2717</v>
       </c>
@@ -34018,7 +34078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="554" spans="1:17">
+    <row r="554" spans="1:18">
       <c r="A554" t="s">
         <v>2718</v>
       </c>
@@ -34059,7 +34119,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="555" spans="1:17">
+    <row r="555" spans="1:18">
       <c r="A555" t="s">
         <v>2719</v>
       </c>
@@ -34097,7 +34157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:17">
+    <row r="556" spans="1:18">
       <c r="A556" t="s">
         <v>2720</v>
       </c>
@@ -34126,7 +34186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="557" spans="1:17">
+    <row r="557" spans="1:18">
       <c r="A557" t="s">
         <v>2721</v>
       </c>
@@ -34140,7 +34200,7 @@
         <v>72</v>
       </c>
       <c r="E557" t="s">
-        <v>72</v>
+        <v>1924</v>
       </c>
       <c r="H557" s="2" t="s">
         <v>3940</v>
@@ -34166,8 +34226,11 @@
       <c r="O557">
         <v>28</v>
       </c>
-    </row>
-    <row r="558" spans="1:17">
+      <c r="P557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:18">
       <c r="A558" t="s">
         <v>2722</v>
       </c>
@@ -34192,11 +34255,11 @@
       <c r="K558">
         <v>3</v>
       </c>
-      <c r="Q558" t="s">
+      <c r="R558" t="s">
         <v>3376</v>
       </c>
     </row>
-    <row r="559" spans="1:17">
+    <row r="559" spans="1:18">
       <c r="A559" t="s">
         <v>2723</v>
       </c>
@@ -34222,7 +34285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="560" spans="1:17">
+    <row r="560" spans="1:18">
       <c r="A560" t="s">
         <v>2724</v>
       </c>
@@ -34263,7 +34326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="561" spans="1:17">
+    <row r="561" spans="1:18">
       <c r="A561" t="s">
         <v>2725</v>
       </c>
@@ -34292,7 +34355,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="562" spans="1:17">
+    <row r="562" spans="1:18">
       <c r="A562" t="s">
         <v>2726</v>
       </c>
@@ -34318,7 +34381,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="563" spans="1:17">
+    <row r="563" spans="1:18">
       <c r="A563" t="s">
         <v>2727</v>
       </c>
@@ -34356,7 +34419,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="564" spans="1:17">
+    <row r="564" spans="1:18">
       <c r="A564" t="s">
         <v>2728</v>
       </c>
@@ -34385,7 +34448,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="565" spans="1:17">
+    <row r="565" spans="1:18">
       <c r="A565" t="s">
         <v>2729</v>
       </c>
@@ -34414,7 +34477,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="566" spans="1:17">
+    <row r="566" spans="1:18">
       <c r="A566" t="s">
         <v>2730</v>
       </c>
@@ -34452,7 +34515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="567" spans="1:17">
+    <row r="567" spans="1:18">
       <c r="A567" t="s">
         <v>2731</v>
       </c>
@@ -34486,8 +34549,9 @@
       <c r="O567" s="1"/>
       <c r="P567" s="1"/>
       <c r="Q567" s="1"/>
-    </row>
-    <row r="568" spans="1:17">
+      <c r="R567" s="1"/>
+    </row>
+    <row r="568" spans="1:18">
       <c r="A568" t="s">
         <v>2732</v>
       </c>
@@ -34515,11 +34579,11 @@
       <c r="K568">
         <v>3</v>
       </c>
-      <c r="Q568" t="s">
+      <c r="R568" t="s">
         <v>3377</v>
       </c>
     </row>
-    <row r="569" spans="1:17">
+    <row r="569" spans="1:18">
       <c r="A569" t="s">
         <v>2733</v>
       </c>
@@ -34557,7 +34621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="570" spans="1:17">
+    <row r="570" spans="1:18">
       <c r="A570" t="s">
         <v>2734</v>
       </c>
@@ -34583,7 +34647,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="571" spans="1:17">
+    <row r="571" spans="1:18">
       <c r="A571" t="s">
         <v>2735</v>
       </c>
@@ -34621,7 +34685,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="572" spans="1:17">
+    <row r="572" spans="1:18">
       <c r="A572" t="s">
         <v>2736</v>
       </c>
@@ -34659,7 +34723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="573" spans="1:17">
+    <row r="573" spans="1:18">
       <c r="A573" t="s">
         <v>2737</v>
       </c>
@@ -34685,7 +34749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="574" spans="1:17">
+    <row r="574" spans="1:18">
       <c r="A574" t="s">
         <v>2738</v>
       </c>
@@ -34725,11 +34789,11 @@
       <c r="O574">
         <v>28</v>
       </c>
-      <c r="Q574" t="s">
+      <c r="R574" t="s">
         <v>3378</v>
       </c>
     </row>
-    <row r="575" spans="1:17">
+    <row r="575" spans="1:18">
       <c r="A575" t="s">
         <v>2739</v>
       </c>
@@ -34755,7 +34819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:17">
+    <row r="576" spans="1:18">
       <c r="A576" t="s">
         <v>2740</v>
       </c>
@@ -34784,7 +34848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="577" spans="1:17">
+    <row r="577" spans="1:18">
       <c r="A577" t="s">
         <v>2741</v>
       </c>
@@ -34825,7 +34889,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="578" spans="1:17">
+    <row r="578" spans="1:18">
       <c r="A578" t="s">
         <v>2742</v>
       </c>
@@ -34851,7 +34915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="579" spans="1:17">
+    <row r="579" spans="1:18">
       <c r="A579" t="s">
         <v>2743</v>
       </c>
@@ -34889,7 +34953,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="580" spans="1:17">
+    <row r="580" spans="1:18">
       <c r="A580" t="s">
         <v>2744</v>
       </c>
@@ -34927,7 +34991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="581" spans="1:17">
+    <row r="581" spans="1:18">
       <c r="A581" t="s">
         <v>2745</v>
       </c>
@@ -34965,7 +35029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="582" spans="1:17">
+    <row r="582" spans="1:18">
       <c r="A582" t="s">
         <v>2746</v>
       </c>
@@ -35003,7 +35067,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="583" spans="1:17">
+    <row r="583" spans="1:18">
       <c r="A583" t="s">
         <v>2747</v>
       </c>
@@ -35029,7 +35093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="584" spans="1:17">
+    <row r="584" spans="1:18">
       <c r="A584" t="s">
         <v>2748</v>
       </c>
@@ -35067,7 +35131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="585" spans="1:17">
+    <row r="585" spans="1:18">
       <c r="A585" t="s">
         <v>2749</v>
       </c>
@@ -35093,7 +35157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="586" spans="1:17">
+    <row r="586" spans="1:18">
       <c r="A586" t="s">
         <v>2750</v>
       </c>
@@ -35131,7 +35195,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="587" spans="1:17">
+    <row r="587" spans="1:18">
       <c r="A587" t="s">
         <v>2751</v>
       </c>
@@ -35169,7 +35233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="588" spans="1:17">
+    <row r="588" spans="1:18">
       <c r="A588" t="s">
         <v>2752</v>
       </c>
@@ -35207,7 +35271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="589" spans="1:17">
+    <row r="589" spans="1:18">
       <c r="A589" t="s">
         <v>2753</v>
       </c>
@@ -35233,7 +35297,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="590" spans="1:17">
+    <row r="590" spans="1:18">
       <c r="A590" t="s">
         <v>2754</v>
       </c>
@@ -35276,11 +35340,11 @@
       <c r="O590">
         <v>27</v>
       </c>
-      <c r="Q590" t="s">
+      <c r="R590" t="s">
         <v>3379</v>
       </c>
     </row>
-    <row r="591" spans="1:17">
+    <row r="591" spans="1:18">
       <c r="A591" t="s">
         <v>2755</v>
       </c>
@@ -35309,7 +35373,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="592" spans="1:17">
+    <row r="592" spans="1:18">
       <c r="A592" t="s">
         <v>2756</v>
       </c>
@@ -35347,7 +35411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="593" spans="1:17">
+    <row r="593" spans="1:18">
       <c r="A593" t="s">
         <v>2757</v>
       </c>
@@ -35373,7 +35437,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="594" spans="1:17">
+    <row r="594" spans="1:18">
       <c r="A594" t="s">
         <v>2758</v>
       </c>
@@ -35402,7 +35466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="595" spans="1:17">
+    <row r="595" spans="1:18">
       <c r="A595" t="s">
         <v>2759</v>
       </c>
@@ -35440,7 +35504,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="596" spans="1:17">
+    <row r="596" spans="1:18">
       <c r="A596" t="s">
         <v>2760</v>
       </c>
@@ -35466,7 +35530,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="597" spans="1:17">
+    <row r="597" spans="1:18">
       <c r="A597" t="s">
         <v>2761</v>
       </c>
@@ -35492,7 +35556,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="598" spans="1:17">
+    <row r="598" spans="1:18">
       <c r="A598" t="s">
         <v>2762</v>
       </c>
@@ -35530,7 +35594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="599" spans="1:17">
+    <row r="599" spans="1:18">
       <c r="A599" t="s">
         <v>2763</v>
       </c>
@@ -35568,7 +35632,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="600" spans="1:17">
+    <row r="600" spans="1:18">
       <c r="A600" t="s">
         <v>2764</v>
       </c>
@@ -35608,11 +35672,11 @@
       <c r="O600">
         <v>26</v>
       </c>
-      <c r="Q600" t="s">
+      <c r="R600" t="s">
         <v>3380</v>
       </c>
     </row>
-    <row r="601" spans="1:17">
+    <row r="601" spans="1:18">
       <c r="A601" t="s">
         <v>2765</v>
       </c>
@@ -35638,7 +35702,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="602" spans="1:17">
+    <row r="602" spans="1:18">
       <c r="A602" t="s">
         <v>2766</v>
       </c>
@@ -35664,7 +35728,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="603" spans="1:17">
+    <row r="603" spans="1:18">
       <c r="A603" t="s">
         <v>2767</v>
       </c>
@@ -35708,7 +35772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="604" spans="1:17">
+    <row r="604" spans="1:18">
       <c r="A604" t="s">
         <v>2768</v>
       </c>
@@ -35737,7 +35801,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="605" spans="1:17">
+    <row r="605" spans="1:18">
       <c r="A605" t="s">
         <v>2769</v>
       </c>
@@ -35763,7 +35827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="606" spans="1:17">
+    <row r="606" spans="1:18">
       <c r="A606" t="s">
         <v>2770</v>
       </c>
@@ -35788,11 +35852,11 @@
       <c r="K606">
         <v>29</v>
       </c>
-      <c r="Q606" t="s">
+      <c r="R606" t="s">
         <v>3381</v>
       </c>
     </row>
-    <row r="607" spans="1:17">
+    <row r="607" spans="1:18">
       <c r="A607" t="s">
         <v>2771</v>
       </c>
@@ -35821,7 +35885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:17">
+    <row r="608" spans="1:18">
       <c r="A608" t="s">
         <v>2772</v>
       </c>
@@ -35859,7 +35923,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="609" spans="1:17">
+    <row r="609" spans="1:18">
       <c r="A609" t="s">
         <v>2773</v>
       </c>
@@ -35885,7 +35949,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="610" spans="1:17">
+    <row r="610" spans="1:18">
       <c r="A610" t="s">
         <v>2774</v>
       </c>
@@ -35911,7 +35975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="611" spans="1:17">
+    <row r="611" spans="1:18">
       <c r="A611" t="s">
         <v>2775</v>
       </c>
@@ -35949,7 +36013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="612" spans="1:17">
+    <row r="612" spans="1:18">
       <c r="A612" t="s">
         <v>2776</v>
       </c>
@@ -35975,7 +36039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="613" spans="1:17">
+    <row r="613" spans="1:18">
       <c r="A613" t="s">
         <v>2777</v>
       </c>
@@ -36004,7 +36068,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="614" spans="1:17">
+    <row r="614" spans="1:18">
       <c r="A614" t="s">
         <v>2778</v>
       </c>
@@ -36037,11 +36101,12 @@
       <c r="N614" s="1"/>
       <c r="O614" s="1"/>
       <c r="P614" s="1"/>
-      <c r="Q614" s="1" t="s">
+      <c r="Q614" s="1"/>
+      <c r="R614" s="1" t="s">
         <v>3416</v>
       </c>
     </row>
-    <row r="615" spans="1:17">
+    <row r="615" spans="1:18">
       <c r="A615" t="s">
         <v>2779</v>
       </c>
@@ -36070,7 +36135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="616" spans="1:17">
+    <row r="616" spans="1:18">
       <c r="A616" t="s">
         <v>2780</v>
       </c>
@@ -36108,7 +36173,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="617" spans="1:17">
+    <row r="617" spans="1:18">
       <c r="A617" t="s">
         <v>2781</v>
       </c>
@@ -36146,7 +36211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="618" spans="1:17">
+    <row r="618" spans="1:18">
       <c r="A618" t="s">
         <v>2782</v>
       </c>
@@ -36172,7 +36237,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="619" spans="1:17">
+    <row r="619" spans="1:18">
       <c r="A619" t="s">
         <v>2783</v>
       </c>
@@ -36210,7 +36275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="620" spans="1:17">
+    <row r="620" spans="1:18">
       <c r="A620" t="s">
         <v>2784</v>
       </c>
@@ -36239,7 +36304,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="621" spans="1:17">
+    <row r="621" spans="1:18">
       <c r="A621" t="s">
         <v>2785</v>
       </c>
@@ -36280,7 +36345,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="622" spans="1:17">
+    <row r="622" spans="1:18">
       <c r="A622" t="s">
         <v>2786</v>
       </c>
@@ -36309,7 +36374,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="623" spans="1:17">
+    <row r="623" spans="1:18">
       <c r="A623" t="s">
         <v>2787</v>
       </c>
@@ -36337,11 +36402,11 @@
       <c r="K623">
         <v>29</v>
       </c>
-      <c r="Q623" t="s">
+      <c r="R623" t="s">
         <v>3382</v>
       </c>
     </row>
-    <row r="624" spans="1:17">
+    <row r="624" spans="1:18">
       <c r="A624" t="s">
         <v>2788</v>
       </c>
@@ -36379,7 +36444,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="625" spans="1:17">
+    <row r="625" spans="1:18">
       <c r="A625" t="s">
         <v>2789</v>
       </c>
@@ -36404,8 +36469,11 @@
       <c r="K625">
         <v>18</v>
       </c>
-    </row>
-    <row r="626" spans="1:17">
+      <c r="P625">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:18">
       <c r="A626" t="s">
         <v>2790</v>
       </c>
@@ -36431,7 +36499,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="627" spans="1:17">
+    <row r="627" spans="1:18">
       <c r="A627" t="s">
         <v>2791</v>
       </c>
@@ -36456,11 +36524,11 @@
       <c r="K627">
         <v>19</v>
       </c>
-      <c r="Q627" t="s">
+      <c r="R627" t="s">
         <v>3383</v>
       </c>
     </row>
-    <row r="628" spans="1:17">
+    <row r="628" spans="1:18">
       <c r="A628" t="s">
         <v>2792</v>
       </c>
@@ -36498,7 +36566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="629" spans="1:17">
+    <row r="629" spans="1:18">
       <c r="A629" t="s">
         <v>2793</v>
       </c>
@@ -36538,11 +36606,11 @@
       <c r="O629">
         <v>17</v>
       </c>
-      <c r="Q629" t="s">
+      <c r="R629" t="s">
         <v>3384</v>
       </c>
     </row>
-    <row r="630" spans="1:17">
+    <row r="630" spans="1:18">
       <c r="A630" t="s">
         <v>2794</v>
       </c>
@@ -36568,7 +36636,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="631" spans="1:17">
+    <row r="631" spans="1:18">
       <c r="A631" t="s">
         <v>2795</v>
       </c>
@@ -36594,7 +36662,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="632" spans="1:17">
+    <row r="632" spans="1:18">
       <c r="A632" t="s">
         <v>2796</v>
       </c>
@@ -36623,7 +36691,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="633" spans="1:17">
+    <row r="633" spans="1:18">
       <c r="A633" t="s">
         <v>2797</v>
       </c>
@@ -36649,7 +36717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="634" spans="1:17">
+    <row r="634" spans="1:18">
       <c r="A634" t="s">
         <v>2798</v>
       </c>
@@ -36678,7 +36746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="635" spans="1:17">
+    <row r="635" spans="1:18">
       <c r="A635" t="s">
         <v>2799</v>
       </c>
@@ -36716,7 +36784,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="636" spans="1:17">
+    <row r="636" spans="1:18">
       <c r="A636" t="s">
         <v>2800</v>
       </c>
@@ -36742,7 +36810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="637" spans="1:17">
+    <row r="637" spans="1:18">
       <c r="A637" t="s">
         <v>2801</v>
       </c>
@@ -36771,7 +36839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="638" spans="1:17">
+    <row r="638" spans="1:18">
       <c r="A638" t="s">
         <v>2802</v>
       </c>
@@ -36797,7 +36865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="639" spans="1:17">
+    <row r="639" spans="1:18">
       <c r="A639" t="s">
         <v>2803</v>
       </c>
@@ -36826,7 +36894,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="640" spans="1:17">
+    <row r="640" spans="1:18">
       <c r="A640" t="s">
         <v>2804</v>
       </c>
@@ -37376,7 +37444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="657" spans="1:17">
+    <row r="657" spans="1:18">
       <c r="A657" t="s">
         <v>2821</v>
       </c>
@@ -37414,7 +37482,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="658" spans="1:17">
+    <row r="658" spans="1:18">
       <c r="A658" t="s">
         <v>2822</v>
       </c>
@@ -37452,7 +37520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="659" spans="1:17">
+    <row r="659" spans="1:18">
       <c r="A659" t="s">
         <v>2823</v>
       </c>
@@ -37493,7 +37561,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="660" spans="1:17">
+    <row r="660" spans="1:18">
       <c r="A660" t="s">
         <v>2824</v>
       </c>
@@ -37530,11 +37598,11 @@
       <c r="O660">
         <v>29</v>
       </c>
-      <c r="Q660" t="s">
+      <c r="R660" t="s">
         <v>5131</v>
       </c>
     </row>
-    <row r="661" spans="1:17">
+    <row r="661" spans="1:18">
       <c r="A661" t="s">
         <v>2825</v>
       </c>
@@ -37572,7 +37640,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="662" spans="1:17">
+    <row r="662" spans="1:18">
       <c r="A662" t="s">
         <v>2826</v>
       </c>
@@ -37610,7 +37678,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="663" spans="1:17">
+    <row r="663" spans="1:18">
       <c r="A663" t="s">
         <v>2827</v>
       </c>
@@ -37639,7 +37707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="664" spans="1:17">
+    <row r="664" spans="1:18">
       <c r="A664" t="s">
         <v>2828</v>
       </c>
@@ -37665,7 +37733,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="665" spans="1:17">
+    <row r="665" spans="1:18">
       <c r="A665" t="s">
         <v>2829</v>
       </c>
@@ -37694,7 +37762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="666" spans="1:17">
+    <row r="666" spans="1:18">
       <c r="A666" t="s">
         <v>2830</v>
       </c>
@@ -37720,7 +37788,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="667" spans="1:17">
+    <row r="667" spans="1:18">
       <c r="A667" t="s">
         <v>2831</v>
       </c>
@@ -37758,7 +37826,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="668" spans="1:17">
+    <row r="668" spans="1:18">
       <c r="A668" t="s">
         <v>2832</v>
       </c>
@@ -37784,7 +37852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="669" spans="1:17">
+    <row r="669" spans="1:18">
       <c r="A669" t="s">
         <v>2833</v>
       </c>
@@ -37813,7 +37881,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="670" spans="1:17">
+    <row r="670" spans="1:18">
       <c r="A670" t="s">
         <v>2834</v>
       </c>
@@ -37854,7 +37922,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="671" spans="1:17">
+    <row r="671" spans="1:18">
       <c r="A671" t="s">
         <v>2835</v>
       </c>
@@ -37880,7 +37948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="672" spans="1:17">
+    <row r="672" spans="1:18">
       <c r="A672" t="s">
         <v>2836</v>
       </c>
@@ -38915,7 +38983,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="705" spans="1:17">
+    <row r="705" spans="1:18">
       <c r="A705" t="s">
         <v>2869</v>
       </c>
@@ -38941,7 +39009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="706" spans="1:17">
+    <row r="706" spans="1:18">
       <c r="A706" t="s">
         <v>2870</v>
       </c>
@@ -38979,7 +39047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="707" spans="1:17">
+    <row r="707" spans="1:18">
       <c r="A707" t="s">
         <v>2871</v>
       </c>
@@ -39008,7 +39076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="708" spans="1:17">
+    <row r="708" spans="1:18">
       <c r="A708" t="s">
         <v>2872</v>
       </c>
@@ -39046,7 +39114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="709" spans="1:17">
+    <row r="709" spans="1:18">
       <c r="A709" t="s">
         <v>2873</v>
       </c>
@@ -39083,11 +39151,11 @@
       <c r="O709">
         <v>9</v>
       </c>
-      <c r="Q709" t="s">
+      <c r="R709" t="s">
         <v>3385</v>
       </c>
     </row>
-    <row r="710" spans="1:17">
+    <row r="710" spans="1:18">
       <c r="A710" t="s">
         <v>2874</v>
       </c>
@@ -39125,7 +39193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="711" spans="1:17">
+    <row r="711" spans="1:18">
       <c r="A711" t="s">
         <v>2875</v>
       </c>
@@ -39151,7 +39219,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="712" spans="1:17">
+    <row r="712" spans="1:18">
       <c r="A712" t="s">
         <v>2876</v>
       </c>
@@ -39180,7 +39248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="713" spans="1:17">
+    <row r="713" spans="1:18">
       <c r="A713" t="s">
         <v>2877</v>
       </c>
@@ -39221,7 +39289,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="714" spans="1:17">
+    <row r="714" spans="1:18">
       <c r="A714" t="s">
         <v>2878</v>
       </c>
@@ -39262,7 +39330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="715" spans="1:17">
+    <row r="715" spans="1:18">
       <c r="A715" t="s">
         <v>2879</v>
       </c>
@@ -39303,7 +39371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="716" spans="1:17">
+    <row r="716" spans="1:18">
       <c r="A716" t="s">
         <v>2880</v>
       </c>
@@ -39329,7 +39397,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="717" spans="1:17">
+    <row r="717" spans="1:18">
       <c r="A717" t="s">
         <v>2881</v>
       </c>
@@ -39366,8 +39434,11 @@
       <c r="O717">
         <v>7</v>
       </c>
-    </row>
-    <row r="718" spans="1:17">
+      <c r="P717">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:18">
       <c r="A718" t="s">
         <v>2882</v>
       </c>
@@ -39393,7 +39464,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="719" spans="1:17">
+    <row r="719" spans="1:18">
       <c r="A719" t="s">
         <v>2883</v>
       </c>
@@ -39419,7 +39490,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="720" spans="1:17">
+    <row r="720" spans="1:18">
       <c r="A720" t="s">
         <v>2884</v>
       </c>
@@ -39460,7 +39531,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="721" spans="1:17">
+    <row r="721" spans="1:18">
       <c r="A721" t="s">
         <v>2885</v>
       </c>
@@ -39498,7 +39569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="722" spans="1:17">
+    <row r="722" spans="1:18">
       <c r="A722" t="s">
         <v>2886</v>
       </c>
@@ -39536,7 +39607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:17">
+    <row r="723" spans="1:18">
       <c r="A723" t="s">
         <v>2887</v>
       </c>
@@ -39574,7 +39645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="724" spans="1:17">
+    <row r="724" spans="1:18">
       <c r="A724" t="s">
         <v>2888</v>
       </c>
@@ -39600,7 +39671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="725" spans="1:17">
+    <row r="725" spans="1:18">
       <c r="A725" t="s">
         <v>2889</v>
       </c>
@@ -39638,7 +39709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="726" spans="1:17">
+    <row r="726" spans="1:18">
       <c r="A726" t="s">
         <v>2890</v>
       </c>
@@ -39676,7 +39747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="727" spans="1:17">
+    <row r="727" spans="1:18">
       <c r="A727" t="s">
         <v>2891</v>
       </c>
@@ -39702,7 +39773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="728" spans="1:17">
+    <row r="728" spans="1:18">
       <c r="A728" t="s">
         <v>2892</v>
       </c>
@@ -39740,7 +39811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="729" spans="1:17">
+    <row r="729" spans="1:18">
       <c r="A729" t="s">
         <v>2893</v>
       </c>
@@ -39778,7 +39849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="730" spans="1:17">
+    <row r="730" spans="1:18">
       <c r="A730" t="s">
         <v>2894</v>
       </c>
@@ -39806,14 +39877,14 @@
       <c r="O730">
         <v>1</v>
       </c>
-      <c r="P730" t="s">
+      <c r="Q730" t="s">
         <v>3386</v>
       </c>
-      <c r="Q730" t="s">
+      <c r="R730" t="s">
         <v>3387</v>
       </c>
     </row>
-    <row r="731" spans="1:17">
+    <row r="731" spans="1:18">
       <c r="A731" t="s">
         <v>2895</v>
       </c>
@@ -39839,7 +39910,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="732" spans="1:17">
+    <row r="732" spans="1:18">
       <c r="A732" t="s">
         <v>2896</v>
       </c>
@@ -39877,7 +39948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="733" spans="1:17">
+    <row r="733" spans="1:18">
       <c r="A733" t="s">
         <v>2897</v>
       </c>
@@ -39917,14 +39988,14 @@
       <c r="O733">
         <v>10</v>
       </c>
-      <c r="P733" t="s">
+      <c r="Q733" t="s">
         <v>3417</v>
       </c>
-      <c r="Q733" t="s">
+      <c r="R733" t="s">
         <v>3388</v>
       </c>
     </row>
-    <row r="734" spans="1:17">
+    <row r="734" spans="1:18">
       <c r="A734" t="s">
         <v>2898</v>
       </c>
@@ -39964,8 +40035,11 @@
       <c r="O734">
         <v>20</v>
       </c>
-    </row>
-    <row r="735" spans="1:17">
+      <c r="P734">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:18">
       <c r="A735" t="s">
         <v>2899</v>
       </c>
@@ -39991,7 +40065,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="736" spans="1:17">
+    <row r="736" spans="1:18">
       <c r="A736" t="s">
         <v>2900</v>
       </c>
@@ -40017,7 +40091,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="737" spans="1:17">
+    <row r="737" spans="1:18">
       <c r="A737" t="s">
         <v>2901</v>
       </c>
@@ -40046,7 +40120,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="738" spans="1:17">
+    <row r="738" spans="1:18">
       <c r="A738" t="s">
         <v>2902</v>
       </c>
@@ -40083,11 +40157,11 @@
       <c r="O738">
         <v>31</v>
       </c>
-      <c r="P738" t="s">
+      <c r="Q738" t="s">
         <v>3418</v>
       </c>
     </row>
-    <row r="739" spans="1:17">
+    <row r="739" spans="1:18">
       <c r="A739" t="s">
         <v>2903</v>
       </c>
@@ -40127,11 +40201,11 @@
       <c r="O739">
         <v>13</v>
       </c>
-      <c r="Q739" t="s">
+      <c r="R739" t="s">
         <v>3389</v>
       </c>
     </row>
-    <row r="740" spans="1:17">
+    <row r="740" spans="1:18">
       <c r="A740" t="s">
         <v>2904</v>
       </c>
@@ -40157,7 +40231,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="741" spans="1:17">
+    <row r="741" spans="1:18">
       <c r="A741" t="s">
         <v>2905</v>
       </c>
@@ -40194,11 +40268,11 @@
       <c r="O741">
         <v>20</v>
       </c>
-      <c r="Q741" t="s">
+      <c r="R741" t="s">
         <v>3390</v>
       </c>
     </row>
-    <row r="742" spans="1:17">
+    <row r="742" spans="1:18">
       <c r="A742" t="s">
         <v>2906</v>
       </c>
@@ -40236,7 +40310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="743" spans="1:17">
+    <row r="743" spans="1:18">
       <c r="A743" t="s">
         <v>2907</v>
       </c>
@@ -40262,7 +40336,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="744" spans="1:17">
+    <row r="744" spans="1:18">
       <c r="A744" t="s">
         <v>2908</v>
       </c>
@@ -40288,7 +40362,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="745" spans="1:17">
+    <row r="745" spans="1:18">
       <c r="A745" t="s">
         <v>2909</v>
       </c>
@@ -40314,7 +40388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="746" spans="1:17">
+    <row r="746" spans="1:18">
       <c r="A746" t="s">
         <v>2910</v>
       </c>
@@ -40352,7 +40426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="747" spans="1:17">
+    <row r="747" spans="1:18">
       <c r="A747" t="s">
         <v>2911</v>
       </c>
@@ -40381,7 +40455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="748" spans="1:17">
+    <row r="748" spans="1:18">
       <c r="A748" t="s">
         <v>2912</v>
       </c>
@@ -40407,7 +40481,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="749" spans="1:17">
+    <row r="749" spans="1:18">
       <c r="A749" t="s">
         <v>2913</v>
       </c>
@@ -40448,7 +40522,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="750" spans="1:17">
+    <row r="750" spans="1:18">
       <c r="A750" t="s">
         <v>2914</v>
       </c>
@@ -40486,7 +40560,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="751" spans="1:17">
+    <row r="751" spans="1:18">
       <c r="A751" t="s">
         <v>2915</v>
       </c>
@@ -40512,7 +40586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="752" spans="1:17">
+    <row r="752" spans="1:18">
       <c r="A752" t="s">
         <v>2916</v>
       </c>
@@ -40550,7 +40624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="753" spans="1:17">
+    <row r="753" spans="1:18">
       <c r="A753" t="s">
         <v>2917</v>
       </c>
@@ -40588,7 +40662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="754" spans="1:17">
+    <row r="754" spans="1:18">
       <c r="A754" t="s">
         <v>2918</v>
       </c>
@@ -40628,8 +40702,11 @@
       <c r="O754">
         <v>31</v>
       </c>
-    </row>
-    <row r="755" spans="1:17">
+      <c r="P754">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" spans="1:18">
       <c r="A755" t="s">
         <v>2919</v>
       </c>
@@ -40670,7 +40747,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="756" spans="1:17">
+    <row r="756" spans="1:18">
       <c r="A756" t="s">
         <v>2920</v>
       </c>
@@ -40696,7 +40773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="757" spans="1:17">
+    <row r="757" spans="1:18">
       <c r="A757" t="s">
         <v>2921</v>
       </c>
@@ -40722,7 +40799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="758" spans="1:17">
+    <row r="758" spans="1:18">
       <c r="A758" t="s">
         <v>2922</v>
       </c>
@@ -40751,7 +40828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="759" spans="1:17">
+    <row r="759" spans="1:18">
       <c r="A759" t="s">
         <v>2923</v>
       </c>
@@ -40789,7 +40866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="760" spans="1:17">
+    <row r="760" spans="1:18">
       <c r="A760" t="s">
         <v>2924</v>
       </c>
@@ -40827,7 +40904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="761" spans="1:17">
+    <row r="761" spans="1:18">
       <c r="A761" t="s">
         <v>2925</v>
       </c>
@@ -40865,7 +40942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="762" spans="1:17">
+    <row r="762" spans="1:18">
       <c r="A762" t="s">
         <v>2926</v>
       </c>
@@ -40893,11 +40970,11 @@
       <c r="K762">
         <v>7</v>
       </c>
-      <c r="Q762" t="s">
+      <c r="R762" t="s">
         <v>3391</v>
       </c>
     </row>
-    <row r="763" spans="1:17">
+    <row r="763" spans="1:18">
       <c r="A763" t="s">
         <v>2927</v>
       </c>
@@ -40922,11 +40999,11 @@
       <c r="K763">
         <v>13</v>
       </c>
-      <c r="Q763" t="s">
+      <c r="R763" t="s">
         <v>3392</v>
       </c>
     </row>
-    <row r="764" spans="1:17">
+    <row r="764" spans="1:18">
       <c r="A764" t="s">
         <v>2928</v>
       </c>
@@ -40955,7 +41032,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="765" spans="1:17">
+    <row r="765" spans="1:18">
       <c r="A765" t="s">
         <v>2929</v>
       </c>
@@ -40993,7 +41070,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="766" spans="1:17">
+    <row r="766" spans="1:18">
       <c r="A766" t="s">
         <v>2930</v>
       </c>
@@ -41018,11 +41095,11 @@
       <c r="K766">
         <v>5</v>
       </c>
-      <c r="Q766" t="s">
+      <c r="R766" t="s">
         <v>3393</v>
       </c>
     </row>
-    <row r="767" spans="1:17">
+    <row r="767" spans="1:18">
       <c r="A767" t="s">
         <v>2931</v>
       </c>
@@ -41048,7 +41125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="768" spans="1:17">
+    <row r="768" spans="1:18">
       <c r="A768" t="s">
         <v>2932</v>
       </c>
@@ -41086,7 +41163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="769" spans="1:17">
+    <row r="769" spans="1:18">
       <c r="A769" t="s">
         <v>2933</v>
       </c>
@@ -41124,7 +41201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="770" spans="1:17">
+    <row r="770" spans="1:18">
       <c r="A770" t="s">
         <v>2934</v>
       </c>
@@ -41161,11 +41238,11 @@
       <c r="O770">
         <v>9</v>
       </c>
-      <c r="Q770" t="s">
+      <c r="R770" t="s">
         <v>3394</v>
       </c>
     </row>
-    <row r="771" spans="1:17">
+    <row r="771" spans="1:18">
       <c r="A771" t="s">
         <v>2935</v>
       </c>
@@ -41191,7 +41268,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="772" spans="1:17">
+    <row r="772" spans="1:18">
       <c r="A772" t="s">
         <v>2936</v>
       </c>
@@ -41229,7 +41306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="773" spans="1:17">
+    <row r="773" spans="1:18">
       <c r="A773" t="s">
         <v>2937</v>
       </c>
@@ -41258,7 +41335,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="774" spans="1:17">
+    <row r="774" spans="1:18">
       <c r="A774" t="s">
         <v>2938</v>
       </c>
@@ -41284,7 +41361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="775" spans="1:17">
+    <row r="775" spans="1:18">
       <c r="A775" t="s">
         <v>2939</v>
       </c>
@@ -41310,7 +41387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="776" spans="1:17">
+    <row r="776" spans="1:18">
       <c r="A776" t="s">
         <v>2940</v>
       </c>
@@ -41348,7 +41425,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="777" spans="1:17">
+    <row r="777" spans="1:18">
       <c r="A777" t="s">
         <v>2941</v>
       </c>
@@ -41386,7 +41463,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="778" spans="1:17">
+    <row r="778" spans="1:18">
       <c r="A778" t="s">
         <v>2942</v>
       </c>
@@ -41424,7 +41501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="779" spans="1:17">
+    <row r="779" spans="1:18">
       <c r="A779" t="s">
         <v>2943</v>
       </c>
@@ -41453,7 +41530,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="780" spans="1:17">
+    <row r="780" spans="1:18">
       <c r="A780" t="s">
         <v>2944</v>
       </c>
@@ -41491,7 +41568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="781" spans="1:17">
+    <row r="781" spans="1:18">
       <c r="A781" t="s">
         <v>2945</v>
       </c>
@@ -41529,7 +41606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="782" spans="1:17">
+    <row r="782" spans="1:18">
       <c r="A782" t="s">
         <v>2946</v>
       </c>
@@ -41567,7 +41644,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="783" spans="1:17">
+    <row r="783" spans="1:18">
       <c r="A783" t="s">
         <v>2947</v>
       </c>
@@ -41605,7 +41682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="784" spans="1:17">
+    <row r="784" spans="1:18">
       <c r="A784" t="s">
         <v>2948</v>
       </c>
@@ -41643,7 +41720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="785" spans="1:17">
+    <row r="785" spans="1:18">
       <c r="A785" t="s">
         <v>2949</v>
       </c>
@@ -41672,7 +41749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="786" spans="1:17">
+    <row r="786" spans="1:18">
       <c r="A786" t="s">
         <v>2950</v>
       </c>
@@ -41698,7 +41775,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="787" spans="1:17">
+    <row r="787" spans="1:18">
       <c r="A787" t="s">
         <v>2951</v>
       </c>
@@ -41724,7 +41801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="788" spans="1:17">
+    <row r="788" spans="1:18">
       <c r="A788" t="s">
         <v>2952</v>
       </c>
@@ -41762,7 +41839,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="789" spans="1:17">
+    <row r="789" spans="1:18">
       <c r="A789" t="s">
         <v>2953</v>
       </c>
@@ -41788,7 +41865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="790" spans="1:17">
+    <row r="790" spans="1:18">
       <c r="A790" t="s">
         <v>2954</v>
       </c>
@@ -41814,7 +41891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="791" spans="1:17">
+    <row r="791" spans="1:18">
       <c r="A791" t="s">
         <v>2955</v>
       </c>
@@ -41855,7 +41932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="792" spans="1:17">
+    <row r="792" spans="1:18">
       <c r="A792" t="s">
         <v>2956</v>
       </c>
@@ -41884,7 +41961,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="793" spans="1:17">
+    <row r="793" spans="1:18">
       <c r="A793" t="s">
         <v>2957</v>
       </c>
@@ -41910,7 +41987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="794" spans="1:17">
+    <row r="794" spans="1:18">
       <c r="A794" t="s">
         <v>2958</v>
       </c>
@@ -41948,7 +42025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="795" spans="1:17">
+    <row r="795" spans="1:18">
       <c r="A795" t="s">
         <v>2959</v>
       </c>
@@ -41974,7 +42051,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="796" spans="1:17">
+    <row r="796" spans="1:18">
       <c r="A796" t="s">
         <v>2960</v>
       </c>
@@ -42012,7 +42089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="797" spans="1:17">
+    <row r="797" spans="1:18">
       <c r="A797" t="s">
         <v>2961</v>
       </c>
@@ -42052,11 +42129,11 @@
       <c r="O797">
         <v>16</v>
       </c>
-      <c r="Q797" t="s">
+      <c r="R797" t="s">
         <v>3395</v>
       </c>
     </row>
-    <row r="798" spans="1:17">
+    <row r="798" spans="1:18">
       <c r="A798" t="s">
         <v>2962</v>
       </c>
@@ -42082,7 +42159,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="799" spans="1:17">
+    <row r="799" spans="1:18">
       <c r="A799" t="s">
         <v>2963</v>
       </c>
@@ -42108,7 +42185,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="800" spans="1:17">
+    <row r="800" spans="1:18">
       <c r="A800" t="s">
         <v>2964</v>
       </c>
@@ -42137,7 +42214,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="801" spans="1:17">
+    <row r="801" spans="1:18">
       <c r="A801" t="s">
         <v>2965</v>
       </c>
@@ -42175,7 +42252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="802" spans="1:17">
+    <row r="802" spans="1:18">
       <c r="A802" t="s">
         <v>2966</v>
       </c>
@@ -42213,7 +42290,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="803" spans="1:17">
+    <row r="803" spans="1:18">
       <c r="A803" t="s">
         <v>2967</v>
       </c>
@@ -42239,7 +42316,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="804" spans="1:17">
+    <row r="804" spans="1:18">
       <c r="A804" t="s">
         <v>2968</v>
       </c>
@@ -42277,7 +42354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="805" spans="1:17">
+    <row r="805" spans="1:18">
       <c r="A805" t="s">
         <v>2969</v>
       </c>
@@ -42303,7 +42380,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="806" spans="1:17">
+    <row r="806" spans="1:18">
       <c r="A806" t="s">
         <v>2970</v>
       </c>
@@ -42343,8 +42420,11 @@
       <c r="O806">
         <v>15</v>
       </c>
-    </row>
-    <row r="807" spans="1:17">
+      <c r="P806">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807" spans="1:18">
       <c r="A807" t="s">
         <v>2971</v>
       </c>
@@ -42370,7 +42450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="808" spans="1:17">
+    <row r="808" spans="1:18">
       <c r="A808" t="s">
         <v>2972</v>
       </c>
@@ -42396,7 +42476,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="809" spans="1:17">
+    <row r="809" spans="1:18">
       <c r="A809" t="s">
         <v>2973</v>
       </c>
@@ -42424,11 +42504,11 @@
       <c r="K809">
         <v>15</v>
       </c>
-      <c r="Q809" t="s">
+      <c r="R809" t="s">
         <v>3396</v>
       </c>
     </row>
-    <row r="810" spans="1:17">
+    <row r="810" spans="1:18">
       <c r="A810" t="s">
         <v>2974</v>
       </c>
@@ -42466,7 +42546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="811" spans="1:17">
+    <row r="811" spans="1:18">
       <c r="A811" t="s">
         <v>2975</v>
       </c>
@@ -42504,7 +42584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="812" spans="1:17">
+    <row r="812" spans="1:18">
       <c r="A812" t="s">
         <v>2976</v>
       </c>
@@ -42533,7 +42613,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="813" spans="1:17">
+    <row r="813" spans="1:18">
       <c r="A813" t="s">
         <v>2977</v>
       </c>
@@ -42558,11 +42638,11 @@
       <c r="K813">
         <v>16</v>
       </c>
-      <c r="Q813" t="s">
+      <c r="R813" t="s">
         <v>3420</v>
       </c>
     </row>
-    <row r="814" spans="1:17">
+    <row r="814" spans="1:18">
       <c r="A814" t="s">
         <v>2978</v>
       </c>
@@ -42588,7 +42668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="815" spans="1:17">
+    <row r="815" spans="1:18">
       <c r="A815" t="s">
         <v>2979</v>
       </c>
@@ -42625,11 +42705,11 @@
       <c r="O815">
         <v>8</v>
       </c>
-      <c r="Q815" t="s">
+      <c r="R815" t="s">
         <v>3397</v>
       </c>
     </row>
-    <row r="816" spans="1:17">
+    <row r="816" spans="1:18">
       <c r="A816" t="s">
         <v>2980</v>
       </c>
@@ -42667,7 +42747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="817" spans="1:15">
+    <row r="817" spans="1:16">
       <c r="A817" t="s">
         <v>2981</v>
       </c>
@@ -42693,7 +42773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="818" spans="1:15">
+    <row r="818" spans="1:16">
       <c r="A818" t="s">
         <v>2982</v>
       </c>
@@ -42722,7 +42802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="819" spans="1:15">
+    <row r="819" spans="1:16">
       <c r="A819" t="s">
         <v>2983</v>
       </c>
@@ -42760,7 +42840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="820" spans="1:15">
+    <row r="820" spans="1:16">
       <c r="A820" t="s">
         <v>2984</v>
       </c>
@@ -42786,7 +42866,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="821" spans="1:15">
+    <row r="821" spans="1:16">
       <c r="A821" t="s">
         <v>2985</v>
       </c>
@@ -42812,7 +42892,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="822" spans="1:15">
+    <row r="822" spans="1:16">
       <c r="A822" t="s">
         <v>2986</v>
       </c>
@@ -42837,8 +42917,11 @@
       <c r="K822">
         <v>13</v>
       </c>
-    </row>
-    <row r="823" spans="1:15">
+      <c r="P822">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="823" spans="1:16">
       <c r="A823" t="s">
         <v>2987</v>
       </c>
@@ -42879,7 +42962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="824" spans="1:15">
+    <row r="824" spans="1:16">
       <c r="A824" t="s">
         <v>2988</v>
       </c>
@@ -42908,7 +42991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="825" spans="1:15">
+    <row r="825" spans="1:16">
       <c r="A825" t="s">
         <v>2989</v>
       </c>
@@ -42934,7 +43017,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="826" spans="1:15">
+    <row r="826" spans="1:16">
       <c r="A826" t="s">
         <v>2990</v>
       </c>
@@ -42960,7 +43043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="827" spans="1:15">
+    <row r="827" spans="1:16">
       <c r="A827" t="s">
         <v>2991</v>
       </c>
@@ -42986,7 +43069,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="828" spans="1:15">
+    <row r="828" spans="1:16">
       <c r="A828" t="s">
         <v>2992</v>
       </c>
@@ -43024,7 +43107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="829" spans="1:15">
+    <row r="829" spans="1:16">
       <c r="A829" t="s">
         <v>2993</v>
       </c>
@@ -43053,7 +43136,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="830" spans="1:15">
+    <row r="830" spans="1:16">
       <c r="A830" t="s">
         <v>2994</v>
       </c>
@@ -43091,7 +43174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="831" spans="1:15">
+    <row r="831" spans="1:16">
       <c r="A831" t="s">
         <v>2995</v>
       </c>
@@ -43129,7 +43212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="832" spans="1:15">
+    <row r="832" spans="1:16">
       <c r="A832" t="s">
         <v>2996</v>
       </c>
@@ -43637,7 +43720,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="849" spans="1:17">
+    <row r="849" spans="1:18">
       <c r="A849" t="s">
         <v>3013</v>
       </c>
@@ -43675,7 +43758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="850" spans="1:17">
+    <row r="850" spans="1:18">
       <c r="A850" t="s">
         <v>3014</v>
       </c>
@@ -43713,7 +43796,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="851" spans="1:17">
+    <row r="851" spans="1:18">
       <c r="A851" t="s">
         <v>3015</v>
       </c>
@@ -43739,7 +43822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="852" spans="1:17">
+    <row r="852" spans="1:18">
       <c r="A852" t="s">
         <v>3016</v>
       </c>
@@ -43764,11 +43847,11 @@
       <c r="K852">
         <v>22</v>
       </c>
-      <c r="Q852" t="s">
+      <c r="R852" t="s">
         <v>3424</v>
       </c>
     </row>
-    <row r="853" spans="1:17">
+    <row r="853" spans="1:18">
       <c r="A853" t="s">
         <v>3017</v>
       </c>
@@ -43806,7 +43889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="854" spans="1:17">
+    <row r="854" spans="1:18">
       <c r="A854" t="s">
         <v>3018</v>
       </c>
@@ -43843,11 +43926,11 @@
       <c r="O854">
         <v>27</v>
       </c>
-      <c r="Q854" t="s">
+      <c r="R854" t="s">
         <v>3398</v>
       </c>
     </row>
-    <row r="855" spans="1:17">
+    <row r="855" spans="1:18">
       <c r="A855" t="s">
         <v>3019</v>
       </c>
@@ -43885,7 +43968,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="856" spans="1:17">
+    <row r="856" spans="1:18">
       <c r="A856" t="s">
         <v>3020</v>
       </c>
@@ -43911,7 +43994,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="857" spans="1:17">
+    <row r="857" spans="1:18">
       <c r="A857" t="s">
         <v>3021</v>
       </c>
@@ -43949,7 +44032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="858" spans="1:17">
+    <row r="858" spans="1:18">
       <c r="A858" t="s">
         <v>3022</v>
       </c>
@@ -43975,7 +44058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="859" spans="1:17">
+    <row r="859" spans="1:18">
       <c r="A859" t="s">
         <v>3023</v>
       </c>
@@ -44001,7 +44084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="860" spans="1:17">
+    <row r="860" spans="1:18">
       <c r="A860" t="s">
         <v>3024</v>
       </c>
@@ -44027,7 +44110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="861" spans="1:17">
+    <row r="861" spans="1:18">
       <c r="A861" t="s">
         <v>3025</v>
       </c>
@@ -44053,7 +44136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="862" spans="1:17">
+    <row r="862" spans="1:18">
       <c r="A862" t="s">
         <v>3026</v>
       </c>
@@ -44091,7 +44174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="863" spans="1:17">
+    <row r="863" spans="1:18">
       <c r="A863" t="s">
         <v>3027</v>
       </c>
@@ -44117,7 +44200,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="864" spans="1:17">
+    <row r="864" spans="1:18">
       <c r="A864" t="s">
         <v>3028</v>
       </c>
@@ -44143,7 +44226,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="865" spans="1:17">
+    <row r="865" spans="1:18">
       <c r="A865" t="s">
         <v>3029</v>
       </c>
@@ -44181,7 +44264,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="866" spans="1:17">
+    <row r="866" spans="1:18">
       <c r="A866" t="s">
         <v>3030</v>
       </c>
@@ -44219,7 +44302,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="867" spans="1:17">
+    <row r="867" spans="1:18">
       <c r="A867" t="s">
         <v>3031</v>
       </c>
@@ -44245,7 +44328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="868" spans="1:17">
+    <row r="868" spans="1:18">
       <c r="A868" t="s">
         <v>3032</v>
       </c>
@@ -44282,14 +44365,14 @@
       <c r="O868">
         <v>20</v>
       </c>
-      <c r="P868" t="s">
+      <c r="Q868" t="s">
         <v>3399</v>
       </c>
-      <c r="Q868" t="s">
+      <c r="R868" t="s">
         <v>3400</v>
       </c>
     </row>
-    <row r="869" spans="1:17">
+    <row r="869" spans="1:18">
       <c r="A869" t="s">
         <v>3033</v>
       </c>
@@ -44315,7 +44398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="870" spans="1:17">
+    <row r="870" spans="1:18">
       <c r="A870" t="s">
         <v>3034</v>
       </c>
@@ -44341,7 +44424,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="871" spans="1:17">
+    <row r="871" spans="1:18">
       <c r="A871" t="s">
         <v>3035</v>
       </c>
@@ -44367,7 +44450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="872" spans="1:17">
+    <row r="872" spans="1:18">
       <c r="A872" t="s">
         <v>3036</v>
       </c>
@@ -44396,7 +44479,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="873" spans="1:17">
+    <row r="873" spans="1:18">
       <c r="A873" t="s">
         <v>3037</v>
       </c>
@@ -44422,7 +44505,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="874" spans="1:17">
+    <row r="874" spans="1:18">
       <c r="A874" t="s">
         <v>3038</v>
       </c>
@@ -44460,7 +44543,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="875" spans="1:17">
+    <row r="875" spans="1:18">
       <c r="A875" t="s">
         <v>3039</v>
       </c>
@@ -44498,7 +44581,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="876" spans="1:17">
+    <row r="876" spans="1:18">
       <c r="A876" t="s">
         <v>3040</v>
       </c>
@@ -44539,7 +44622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="877" spans="1:17">
+    <row r="877" spans="1:18">
       <c r="A877" t="s">
         <v>3041</v>
       </c>
@@ -44568,7 +44651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="878" spans="1:17">
+    <row r="878" spans="1:18">
       <c r="A878" t="s">
         <v>3042</v>
       </c>
@@ -44594,7 +44677,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="879" spans="1:17">
+    <row r="879" spans="1:18">
       <c r="A879" t="s">
         <v>3043</v>
       </c>
@@ -44632,7 +44715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="880" spans="1:17">
+    <row r="880" spans="1:18">
       <c r="A880" t="s">
         <v>3044</v>
       </c>
@@ -44658,7 +44741,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="881" spans="1:16">
+    <row r="881" spans="1:17">
       <c r="A881" t="s">
         <v>3045</v>
       </c>
@@ -44687,7 +44770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="882" spans="1:16">
+    <row r="882" spans="1:17">
       <c r="A882" t="s">
         <v>3046</v>
       </c>
@@ -44727,8 +44810,11 @@
       <c r="O882">
         <v>20</v>
       </c>
-    </row>
-    <row r="883" spans="1:16">
+      <c r="P882">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="883" spans="1:17">
       <c r="A883" t="s">
         <v>3047</v>
       </c>
@@ -44757,7 +44843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="884" spans="1:16">
+    <row r="884" spans="1:17">
       <c r="A884" t="s">
         <v>3048</v>
       </c>
@@ -44785,11 +44871,11 @@
       <c r="O884">
         <v>14</v>
       </c>
-      <c r="P884" t="s">
+      <c r="Q884" t="s">
         <v>3356</v>
       </c>
     </row>
-    <row r="885" spans="1:16">
+    <row r="885" spans="1:17">
       <c r="A885" t="s">
         <v>3049</v>
       </c>
@@ -44815,7 +44901,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="886" spans="1:16">
+    <row r="886" spans="1:17">
       <c r="A886" t="s">
         <v>3050</v>
       </c>
@@ -44841,7 +44927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="887" spans="1:16">
+    <row r="887" spans="1:17">
       <c r="A887" t="s">
         <v>3051</v>
       </c>
@@ -44882,7 +44968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="888" spans="1:16">
+    <row r="888" spans="1:17">
       <c r="A888" t="s">
         <v>3052</v>
       </c>
@@ -44920,7 +45006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="889" spans="1:16">
+    <row r="889" spans="1:17">
       <c r="A889" t="s">
         <v>3053</v>
       </c>
@@ -44946,7 +45032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="890" spans="1:16">
+    <row r="890" spans="1:17">
       <c r="A890" t="s">
         <v>3054</v>
       </c>
@@ -44984,7 +45070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="891" spans="1:16">
+    <row r="891" spans="1:17">
       <c r="A891" t="s">
         <v>3055</v>
       </c>
@@ -45022,7 +45108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="892" spans="1:16">
+    <row r="892" spans="1:17">
       <c r="A892" t="s">
         <v>3056</v>
       </c>
@@ -45051,7 +45137,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="893" spans="1:16">
+    <row r="893" spans="1:17">
       <c r="A893" t="s">
         <v>3057</v>
       </c>
@@ -45089,7 +45175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="894" spans="1:16">
+    <row r="894" spans="1:17">
       <c r="A894" t="s">
         <v>3058</v>
       </c>
@@ -45115,7 +45201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="895" spans="1:16">
+    <row r="895" spans="1:17">
       <c r="A895" t="s">
         <v>3059</v>
       </c>
@@ -45141,7 +45227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="896" spans="1:16">
+    <row r="896" spans="1:17">
       <c r="A896" t="s">
         <v>3060</v>
       </c>
@@ -46206,7 +46292,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="929" spans="1:17">
+    <row r="929" spans="1:18">
       <c r="A929" t="s">
         <v>3093</v>
       </c>
@@ -46244,7 +46330,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="930" spans="1:17">
+    <row r="930" spans="1:18">
       <c r="A930" t="s">
         <v>3094</v>
       </c>
@@ -46269,11 +46355,11 @@
       <c r="K930">
         <v>16</v>
       </c>
-      <c r="Q930" t="s">
+      <c r="R930" t="s">
         <v>3401</v>
       </c>
     </row>
-    <row r="931" spans="1:17">
+    <row r="931" spans="1:18">
       <c r="A931" t="s">
         <v>3095</v>
       </c>
@@ -46299,7 +46385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="932" spans="1:17">
+    <row r="932" spans="1:18">
       <c r="A932" t="s">
         <v>3096</v>
       </c>
@@ -46339,8 +46425,11 @@
       <c r="O932">
         <v>13</v>
       </c>
-    </row>
-    <row r="933" spans="1:17">
+      <c r="P932">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="933" spans="1:18">
       <c r="A933" t="s">
         <v>3097</v>
       </c>
@@ -46366,7 +46455,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="934" spans="1:17">
+    <row r="934" spans="1:18">
       <c r="A934" t="s">
         <v>3098</v>
       </c>
@@ -46392,7 +46481,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="935" spans="1:17">
+    <row r="935" spans="1:18">
       <c r="A935" t="s">
         <v>3099</v>
       </c>
@@ -46417,11 +46506,11 @@
       <c r="K935">
         <v>15</v>
       </c>
-      <c r="P935" t="s">
+      <c r="Q935" t="s">
         <v>3419</v>
       </c>
     </row>
-    <row r="936" spans="1:17">
+    <row r="936" spans="1:18">
       <c r="A936" t="s">
         <v>3100</v>
       </c>
@@ -46459,7 +46548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="937" spans="1:17">
+    <row r="937" spans="1:18">
       <c r="A937" t="s">
         <v>3101</v>
       </c>
@@ -46484,11 +46573,11 @@
       <c r="K937">
         <v>16</v>
       </c>
-      <c r="Q937" t="s">
+      <c r="R937" t="s">
         <v>3402</v>
       </c>
     </row>
-    <row r="938" spans="1:17">
+    <row r="938" spans="1:18">
       <c r="A938" t="s">
         <v>3102</v>
       </c>
@@ -46514,7 +46603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="939" spans="1:17">
+    <row r="939" spans="1:18">
       <c r="A939" t="s">
         <v>3103</v>
       </c>
@@ -46540,7 +46629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="940" spans="1:17">
+    <row r="940" spans="1:18">
       <c r="A940" t="s">
         <v>3104</v>
       </c>
@@ -46569,7 +46658,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="941" spans="1:17">
+    <row r="941" spans="1:18">
       <c r="A941" t="s">
         <v>3105</v>
       </c>
@@ -46610,7 +46699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="942" spans="1:17">
+    <row r="942" spans="1:18">
       <c r="A942" t="s">
         <v>3106</v>
       </c>
@@ -46639,7 +46728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="943" spans="1:17">
+    <row r="943" spans="1:18">
       <c r="A943" t="s">
         <v>3107</v>
       </c>
@@ -46677,7 +46766,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="944" spans="1:17">
+    <row r="944" spans="1:18">
       <c r="A944" t="s">
         <v>3108</v>
       </c>
@@ -47230,7 +47319,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="961" spans="1:17">
+    <row r="961" spans="1:18">
       <c r="A961" t="s">
         <v>3125</v>
       </c>
@@ -47256,7 +47345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="962" spans="1:17">
+    <row r="962" spans="1:18">
       <c r="A962" t="s">
         <v>3126</v>
       </c>
@@ -47282,7 +47371,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="963" spans="1:17">
+    <row r="963" spans="1:18">
       <c r="A963" t="s">
         <v>3127</v>
       </c>
@@ -47307,8 +47396,11 @@
       <c r="K963">
         <v>21</v>
       </c>
-    </row>
-    <row r="964" spans="1:17">
+      <c r="P963">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="964" spans="1:18">
       <c r="A964" t="s">
         <v>3128</v>
       </c>
@@ -47334,7 +47426,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="965" spans="1:17">
+    <row r="965" spans="1:18">
       <c r="A965" t="s">
         <v>3129</v>
       </c>
@@ -47372,7 +47464,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="966" spans="1:17">
+    <row r="966" spans="1:18">
       <c r="A966" t="s">
         <v>3130</v>
       </c>
@@ -47410,7 +47502,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="967" spans="1:17">
+    <row r="967" spans="1:18">
       <c r="A967" t="s">
         <v>3131</v>
       </c>
@@ -47436,7 +47528,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="968" spans="1:17">
+    <row r="968" spans="1:18">
       <c r="A968" t="s">
         <v>3132</v>
       </c>
@@ -47465,7 +47557,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="969" spans="1:17">
+    <row r="969" spans="1:18">
       <c r="A969" t="s">
         <v>3133</v>
       </c>
@@ -47503,7 +47595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="970" spans="1:17">
+    <row r="970" spans="1:18">
       <c r="A970" t="s">
         <v>3134</v>
       </c>
@@ -47544,7 +47636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="971" spans="1:17">
+    <row r="971" spans="1:18">
       <c r="A971" t="s">
         <v>3135</v>
       </c>
@@ -47570,7 +47662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="972" spans="1:17">
+    <row r="972" spans="1:18">
       <c r="A972" t="s">
         <v>3136</v>
       </c>
@@ -47596,7 +47688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="973" spans="1:17">
+    <row r="973" spans="1:18">
       <c r="A973" t="s">
         <v>3137</v>
       </c>
@@ -47622,7 +47714,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="974" spans="1:17">
+    <row r="974" spans="1:18">
       <c r="A974" t="s">
         <v>3138</v>
       </c>
@@ -47660,7 +47752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="975" spans="1:17">
+    <row r="975" spans="1:18">
       <c r="A975" t="s">
         <v>3139</v>
       </c>
@@ -47698,7 +47790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="976" spans="1:17">
+    <row r="976" spans="1:18">
       <c r="A976" t="s">
         <v>3140</v>
       </c>
@@ -47726,11 +47818,11 @@
       <c r="O976">
         <v>24</v>
       </c>
-      <c r="Q976" t="s">
+      <c r="R976" t="s">
         <v>3403</v>
       </c>
     </row>
-    <row r="977" spans="1:17">
+    <row r="977" spans="1:18">
       <c r="A977" t="s">
         <v>3141</v>
       </c>
@@ -47756,7 +47848,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="978" spans="1:17">
+    <row r="978" spans="1:18">
       <c r="A978" t="s">
         <v>3142</v>
       </c>
@@ -47785,7 +47877,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="979" spans="1:17">
+    <row r="979" spans="1:18">
       <c r="A979" t="s">
         <v>3143</v>
       </c>
@@ -47811,7 +47903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="980" spans="1:17">
+    <row r="980" spans="1:18">
       <c r="A980" t="s">
         <v>3144</v>
       </c>
@@ -47837,7 +47929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="981" spans="1:17">
+    <row r="981" spans="1:18">
       <c r="A981" t="s">
         <v>3145</v>
       </c>
@@ -47875,7 +47967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="982" spans="1:17">
+    <row r="982" spans="1:18">
       <c r="A982" t="s">
         <v>3146</v>
       </c>
@@ -47913,7 +48005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="983" spans="1:17">
+    <row r="983" spans="1:18">
       <c r="A983" t="s">
         <v>3147</v>
       </c>
@@ -47942,7 +48034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="984" spans="1:17">
+    <row r="984" spans="1:18">
       <c r="A984" t="s">
         <v>3148</v>
       </c>
@@ -47968,7 +48060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="985" spans="1:17">
+    <row r="985" spans="1:18">
       <c r="A985" t="s">
         <v>3149</v>
       </c>
@@ -47994,7 +48086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="986" spans="1:17">
+    <row r="986" spans="1:18">
       <c r="A986" t="s">
         <v>3150</v>
       </c>
@@ -48020,7 +48112,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="987" spans="1:17">
+    <row r="987" spans="1:18">
       <c r="A987" t="s">
         <v>3151</v>
       </c>
@@ -48048,11 +48140,11 @@
       <c r="K987">
         <v>18</v>
       </c>
-      <c r="Q987" t="s">
+      <c r="R987" t="s">
         <v>3404</v>
       </c>
     </row>
-    <row r="988" spans="1:17">
+    <row r="988" spans="1:18">
       <c r="A988" t="s">
         <v>3152</v>
       </c>
@@ -48092,8 +48184,11 @@
       <c r="O988">
         <v>28</v>
       </c>
-    </row>
-    <row r="989" spans="1:17">
+      <c r="P988">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="989" spans="1:18">
       <c r="A989" t="s">
         <v>3153</v>
       </c>
@@ -48131,7 +48226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="990" spans="1:17">
+    <row r="990" spans="1:18">
       <c r="A990" t="s">
         <v>3154</v>
       </c>
@@ -48169,7 +48264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="991" spans="1:17">
+    <row r="991" spans="1:18">
       <c r="A991" t="s">
         <v>3155</v>
       </c>
@@ -48195,7 +48290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="992" spans="1:17">
+    <row r="992" spans="1:18">
       <c r="A992" t="s">
         <v>3156</v>
       </c>
@@ -48221,7 +48316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="993" spans="1:17">
+    <row r="993" spans="1:18">
       <c r="A993" t="s">
         <v>3157</v>
       </c>
@@ -48259,7 +48354,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="994" spans="1:17">
+    <row r="994" spans="1:18">
       <c r="A994" t="s">
         <v>3158</v>
       </c>
@@ -48285,7 +48380,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="995" spans="1:17">
+    <row r="995" spans="1:18">
       <c r="A995" t="s">
         <v>3159</v>
       </c>
@@ -48310,11 +48405,11 @@
       <c r="K995">
         <v>24</v>
       </c>
-      <c r="Q995" t="s">
+      <c r="R995" t="s">
         <v>3423</v>
       </c>
     </row>
-    <row r="996" spans="1:17">
+    <row r="996" spans="1:18">
       <c r="A996" t="s">
         <v>3160</v>
       </c>
@@ -48340,7 +48435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="997" spans="1:17">
+    <row r="997" spans="1:18">
       <c r="A997" t="s">
         <v>3161</v>
       </c>
@@ -48369,7 +48464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="998" spans="1:17">
+    <row r="998" spans="1:18">
       <c r="A998" t="s">
         <v>3162</v>
       </c>
@@ -48407,7 +48502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="999" spans="1:17">
+    <row r="999" spans="1:18">
       <c r="A999" t="s">
         <v>3163</v>
       </c>
@@ -48445,7 +48540,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1000" spans="1:17">
+    <row r="1000" spans="1:18">
       <c r="A1000" t="s">
         <v>3164</v>
       </c>
@@ -48483,7 +48578,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1001" spans="1:17">
+    <row r="1001" spans="1:18">
       <c r="A1001" t="s">
         <v>3165</v>
       </c>
@@ -48521,7 +48616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1002" spans="1:17">
+    <row r="1002" spans="1:18">
       <c r="A1002" t="s">
         <v>3166</v>
       </c>
@@ -48559,7 +48654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1003" spans="1:17">
+    <row r="1003" spans="1:18">
       <c r="A1003" t="s">
         <v>3167</v>
       </c>
@@ -48587,11 +48682,11 @@
       <c r="K1003">
         <v>7</v>
       </c>
-      <c r="Q1003" t="s">
+      <c r="R1003" t="s">
         <v>3405</v>
       </c>
     </row>
-    <row r="1004" spans="1:17">
+    <row r="1004" spans="1:18">
       <c r="A1004" t="s">
         <v>3168</v>
       </c>
@@ -48617,7 +48712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1005" spans="1:17">
+    <row r="1005" spans="1:18">
       <c r="A1005" t="s">
         <v>3169</v>
       </c>
@@ -48643,7 +48738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1006" spans="1:17">
+    <row r="1006" spans="1:18">
       <c r="A1006" t="s">
         <v>3170</v>
       </c>
@@ -48669,7 +48764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1007" spans="1:17">
+    <row r="1007" spans="1:18">
       <c r="A1007" t="s">
         <v>3171</v>
       </c>
@@ -48695,7 +48790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1008" spans="1:17">
+    <row r="1008" spans="1:18">
       <c r="A1008" t="s">
         <v>3172</v>
       </c>
@@ -49212,7 +49307,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1025" spans="1:17">
+    <row r="1025" spans="1:18">
       <c r="A1025" t="s">
         <v>3189</v>
       </c>
@@ -49253,7 +49348,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1026" spans="1:17">
+    <row r="1026" spans="1:18">
       <c r="A1026" t="s">
         <v>3190</v>
       </c>
@@ -49279,7 +49374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1027" spans="1:17">
+    <row r="1027" spans="1:18">
       <c r="A1027" t="s">
         <v>3191</v>
       </c>
@@ -49305,7 +49400,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1028" spans="1:17">
+    <row r="1028" spans="1:18">
       <c r="A1028" t="s">
         <v>3192</v>
       </c>
@@ -49343,7 +49438,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1029" spans="1:17">
+    <row r="1029" spans="1:18">
       <c r="A1029" t="s">
         <v>3193</v>
       </c>
@@ -49369,7 +49464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1030" spans="1:17">
+    <row r="1030" spans="1:18">
       <c r="A1030" t="s">
         <v>3194</v>
       </c>
@@ -49406,11 +49501,11 @@
       <c r="O1030">
         <v>20</v>
       </c>
-      <c r="Q1030" t="s">
+      <c r="R1030" t="s">
         <v>3406</v>
       </c>
     </row>
-    <row r="1031" spans="1:17">
+    <row r="1031" spans="1:18">
       <c r="A1031" t="s">
         <v>3195</v>
       </c>
@@ -49436,7 +49531,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1032" spans="1:17">
+    <row r="1032" spans="1:18">
       <c r="A1032" t="s">
         <v>3196</v>
       </c>
@@ -49462,7 +49557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1033" spans="1:17">
+    <row r="1033" spans="1:18">
       <c r="A1033" t="s">
         <v>3197</v>
       </c>
@@ -49500,7 +49595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1034" spans="1:17">
+    <row r="1034" spans="1:18">
       <c r="A1034" t="s">
         <v>3198</v>
       </c>
@@ -49526,7 +49621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1035" spans="1:17">
+    <row r="1035" spans="1:18">
       <c r="A1035" t="s">
         <v>3199</v>
       </c>
@@ -49564,7 +49659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1036" spans="1:17">
+    <row r="1036" spans="1:18">
       <c r="A1036" t="s">
         <v>3200</v>
       </c>
@@ -49602,7 +49697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1037" spans="1:17">
+    <row r="1037" spans="1:18">
       <c r="A1037" t="s">
         <v>3201</v>
       </c>
@@ -49640,7 +49735,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1038" spans="1:17">
+    <row r="1038" spans="1:18">
       <c r="A1038" t="s">
         <v>3202</v>
       </c>
@@ -49678,7 +49773,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1039" spans="1:17">
+    <row r="1039" spans="1:18">
       <c r="A1039" t="s">
         <v>3203</v>
       </c>
@@ -49707,7 +49802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1040" spans="1:17">
+    <row r="1040" spans="1:18">
       <c r="A1040" t="s">
         <v>3204</v>
       </c>
@@ -49733,7 +49828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1041" spans="1:17">
+    <row r="1041" spans="1:18">
       <c r="A1041" t="s">
         <v>3205</v>
       </c>
@@ -49759,7 +49854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1042" spans="1:17">
+    <row r="1042" spans="1:18">
       <c r="A1042" t="s">
         <v>3206</v>
       </c>
@@ -49785,7 +49880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1043" spans="1:17">
+    <row r="1043" spans="1:18">
       <c r="A1043" t="s">
         <v>3207</v>
       </c>
@@ -49825,11 +49920,11 @@
       <c r="O1043">
         <v>16</v>
       </c>
-      <c r="Q1043" t="s">
+      <c r="R1043" t="s">
         <v>3407</v>
       </c>
     </row>
-    <row r="1044" spans="1:17">
+    <row r="1044" spans="1:18">
       <c r="A1044" t="s">
         <v>3208</v>
       </c>
@@ -49870,7 +49965,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1045" spans="1:17">
+    <row r="1045" spans="1:18">
       <c r="A1045" t="s">
         <v>3209</v>
       </c>
@@ -49908,7 +50003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1046" spans="1:17">
+    <row r="1046" spans="1:18">
       <c r="A1046" t="s">
         <v>3210</v>
       </c>
@@ -49946,7 +50041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1047" spans="1:17">
+    <row r="1047" spans="1:18">
       <c r="A1047" t="s">
         <v>3211</v>
       </c>
@@ -49972,7 +50067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1048" spans="1:17">
+    <row r="1048" spans="1:18">
       <c r="A1048" t="s">
         <v>3212</v>
       </c>
@@ -50001,7 +50096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1049" spans="1:17">
+    <row r="1049" spans="1:18">
       <c r="A1049" t="s">
         <v>3213</v>
       </c>
@@ -50039,7 +50134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1050" spans="1:17">
+    <row r="1050" spans="1:18">
       <c r="A1050" t="s">
         <v>3214</v>
       </c>
@@ -50064,11 +50159,11 @@
       <c r="K1050">
         <v>8</v>
       </c>
-      <c r="Q1050" s="1" t="s">
+      <c r="R1050" s="1" t="s">
         <v>3422</v>
       </c>
     </row>
-    <row r="1051" spans="1:17">
+    <row r="1051" spans="1:18">
       <c r="A1051" t="s">
         <v>3215</v>
       </c>
@@ -50106,7 +50201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1052" spans="1:17">
+    <row r="1052" spans="1:18">
       <c r="A1052" t="s">
         <v>3216</v>
       </c>
@@ -50144,7 +50239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1053" spans="1:17">
+    <row r="1053" spans="1:18">
       <c r="A1053" t="s">
         <v>3217</v>
       </c>
@@ -50170,7 +50265,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1054" spans="1:17">
+    <row r="1054" spans="1:18">
       <c r="A1054" t="s">
         <v>3218</v>
       </c>
@@ -50196,7 +50291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1055" spans="1:17">
+    <row r="1055" spans="1:18">
       <c r="A1055" t="s">
         <v>3219</v>
       </c>
@@ -50222,7 +50317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1056" spans="1:17">
+    <row r="1056" spans="1:18">
       <c r="A1056" t="s">
         <v>3220</v>
       </c>
@@ -50248,7 +50343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1057" spans="1:17">
+    <row r="1057" spans="1:18">
       <c r="A1057" t="s">
         <v>3221</v>
       </c>
@@ -50280,7 +50375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1058" spans="1:17">
+    <row r="1058" spans="1:18">
       <c r="A1058" t="s">
         <v>3222</v>
       </c>
@@ -50306,7 +50401,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1059" spans="1:17">
+    <row r="1059" spans="1:18">
       <c r="A1059" t="s">
         <v>3223</v>
       </c>
@@ -50331,11 +50426,11 @@
       <c r="K1059">
         <v>3</v>
       </c>
-      <c r="Q1059" t="s">
+      <c r="R1059" t="s">
         <v>3408</v>
       </c>
     </row>
-    <row r="1060" spans="1:17">
+    <row r="1060" spans="1:18">
       <c r="A1060" t="s">
         <v>3224</v>
       </c>
@@ -50376,7 +50471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1061" spans="1:17">
+    <row r="1061" spans="1:18">
       <c r="A1061" t="s">
         <v>3225</v>
       </c>
@@ -50402,7 +50497,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1062" spans="1:17">
+    <row r="1062" spans="1:18">
       <c r="A1062" t="s">
         <v>3226</v>
       </c>
@@ -50428,7 +50523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1063" spans="1:17">
+    <row r="1063" spans="1:18">
       <c r="A1063" t="s">
         <v>3227</v>
       </c>
@@ -50454,7 +50549,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1064" spans="1:17">
+    <row r="1064" spans="1:18">
       <c r="A1064" t="s">
         <v>3228</v>
       </c>
@@ -50480,7 +50575,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1065" spans="1:17">
+    <row r="1065" spans="1:18">
       <c r="A1065" t="s">
         <v>3229</v>
       </c>
@@ -50506,7 +50601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1066" spans="1:17">
+    <row r="1066" spans="1:18">
       <c r="A1066" t="s">
         <v>3230</v>
       </c>
@@ -50532,7 +50627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1067" spans="1:17">
+    <row r="1067" spans="1:18">
       <c r="A1067" t="s">
         <v>3231</v>
       </c>
@@ -50558,7 +50653,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1068" spans="1:17">
+    <row r="1068" spans="1:18">
       <c r="A1068" t="s">
         <v>3232</v>
       </c>
@@ -50596,7 +50691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1069" spans="1:17">
+    <row r="1069" spans="1:18">
       <c r="A1069" t="s">
         <v>3233</v>
       </c>
@@ -50622,7 +50717,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1070" spans="1:17">
+    <row r="1070" spans="1:18">
       <c r="A1070" t="s">
         <v>3234</v>
       </c>
@@ -50648,7 +50743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1071" spans="1:17">
+    <row r="1071" spans="1:18">
       <c r="A1071" t="s">
         <v>3235</v>
       </c>
@@ -50677,7 +50772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1072" spans="1:17">
+    <row r="1072" spans="1:18">
       <c r="A1072" t="s">
         <v>3236</v>
       </c>
@@ -51236,7 +51331,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1089" spans="1:18">
+    <row r="1089" spans="1:19">
       <c r="A1089" t="s">
         <v>3253</v>
       </c>
@@ -51274,7 +51369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1090" spans="1:18">
+    <row r="1090" spans="1:19">
       <c r="A1090" t="s">
         <v>3254</v>
       </c>
@@ -51299,11 +51394,11 @@
       <c r="K1090">
         <v>23</v>
       </c>
-      <c r="Q1090" t="s">
+      <c r="R1090" t="s">
         <v>3409</v>
       </c>
     </row>
-    <row r="1091" spans="1:18">
+    <row r="1091" spans="1:19">
       <c r="A1091" t="s">
         <v>3255</v>
       </c>
@@ -51329,7 +51424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1092" spans="1:18">
+    <row r="1092" spans="1:19">
       <c r="A1092" t="s">
         <v>3256</v>
       </c>
@@ -51355,7 +51450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1093" spans="1:18">
+    <row r="1093" spans="1:19">
       <c r="A1093" t="s">
         <v>3257</v>
       </c>
@@ -51381,7 +51476,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1094" spans="1:18">
+    <row r="1094" spans="1:19">
       <c r="A1094" t="s">
         <v>3258</v>
       </c>
@@ -51418,11 +51513,11 @@
       <c r="O1094">
         <v>10</v>
       </c>
-      <c r="R1094" t="s">
+      <c r="S1094" t="s">
         <v>3431</v>
       </c>
     </row>
-    <row r="1095" spans="1:18">
+    <row r="1095" spans="1:19">
       <c r="A1095" t="s">
         <v>3259</v>
       </c>
@@ -51451,7 +51546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1096" spans="1:18">
+    <row r="1096" spans="1:19">
       <c r="A1096" t="s">
         <v>3260</v>
       </c>
@@ -51476,8 +51571,11 @@
       <c r="K1096">
         <v>24</v>
       </c>
-    </row>
-    <row r="1097" spans="1:18">
+      <c r="P1096">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:19">
       <c r="A1097" t="s">
         <v>3261</v>
       </c>
@@ -51518,7 +51616,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1098" spans="1:18">
+    <row r="1098" spans="1:19">
       <c r="A1098" t="s">
         <v>3262</v>
       </c>
@@ -51556,7 +51654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1099" spans="1:18">
+    <row r="1099" spans="1:19">
       <c r="A1099" t="s">
         <v>3263</v>
       </c>
@@ -51597,7 +51695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1100" spans="1:18">
+    <row r="1100" spans="1:19">
       <c r="A1100" t="s">
         <v>3264</v>
       </c>
@@ -51623,7 +51721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1101" spans="1:18">
+    <row r="1101" spans="1:19">
       <c r="A1101" t="s">
         <v>3265</v>
       </c>
@@ -51663,11 +51761,11 @@
       <c r="O1101">
         <v>26</v>
       </c>
-      <c r="Q1101" t="s">
+      <c r="R1101" t="s">
         <v>3421</v>
       </c>
     </row>
-    <row r="1102" spans="1:18">
+    <row r="1102" spans="1:19">
       <c r="A1102" t="s">
         <v>3266</v>
       </c>
@@ -51693,7 +51791,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1103" spans="1:18">
+    <row r="1103" spans="1:19">
       <c r="A1103" t="s">
         <v>3267</v>
       </c>
@@ -51719,7 +51817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1104" spans="1:18">
+    <row r="1104" spans="1:19">
       <c r="A1104" t="s">
         <v>3268</v>
       </c>
@@ -51745,7 +51843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1105" spans="1:17">
+    <row r="1105" spans="1:18">
       <c r="A1105" t="s">
         <v>3269</v>
       </c>
@@ -51774,7 +51872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1106" spans="1:17">
+    <row r="1106" spans="1:18">
       <c r="A1106" t="s">
         <v>3270</v>
       </c>
@@ -51800,7 +51898,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1107" spans="1:17">
+    <row r="1107" spans="1:18">
       <c r="A1107" t="s">
         <v>3271</v>
       </c>
@@ -51826,7 +51924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1108" spans="1:17">
+    <row r="1108" spans="1:18">
       <c r="A1108" t="s">
         <v>3272</v>
       </c>
@@ -51855,7 +51953,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1109" spans="1:17">
+    <row r="1109" spans="1:18">
       <c r="A1109" t="s">
         <v>3273</v>
       </c>
@@ -51881,7 +51979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1110" spans="1:17">
+    <row r="1110" spans="1:18">
       <c r="A1110" t="s">
         <v>3274</v>
       </c>
@@ -51907,7 +52005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1111" spans="1:17">
+    <row r="1111" spans="1:18">
       <c r="A1111" t="s">
         <v>3275</v>
       </c>
@@ -51933,7 +52031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1112" spans="1:17">
+    <row r="1112" spans="1:18">
       <c r="A1112" t="s">
         <v>3276</v>
       </c>
@@ -51971,7 +52069,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1113" spans="1:17">
+    <row r="1113" spans="1:18">
       <c r="A1113" t="s">
         <v>3277</v>
       </c>
@@ -52008,11 +52106,11 @@
       <c r="O1113">
         <v>10</v>
       </c>
-      <c r="Q1113" t="s">
+      <c r="R1113" t="s">
         <v>3410</v>
       </c>
     </row>
-    <row r="1114" spans="1:17">
+    <row r="1114" spans="1:18">
       <c r="A1114" t="s">
         <v>3278</v>
       </c>
@@ -52050,7 +52148,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1115" spans="1:17">
+    <row r="1115" spans="1:18">
       <c r="A1115" t="s">
         <v>3279</v>
       </c>
@@ -52076,7 +52174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1116" spans="1:17">
+    <row r="1116" spans="1:18">
       <c r="A1116" t="s">
         <v>3280</v>
       </c>
@@ -52114,7 +52212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1117" spans="1:17">
+    <row r="1117" spans="1:18">
       <c r="A1117" t="s">
         <v>3281</v>
       </c>
@@ -52155,7 +52253,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1118" spans="1:17">
+    <row r="1118" spans="1:18">
       <c r="A1118" t="s">
         <v>3282</v>
       </c>
@@ -52181,7 +52279,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1119" spans="1:17">
+    <row r="1119" spans="1:18">
       <c r="A1119" t="s">
         <v>3283</v>
       </c>
@@ -52194,6 +52292,9 @@
       <c r="D1119" t="s">
         <v>18</v>
       </c>
+      <c r="E1119" t="s">
+        <v>1148</v>
+      </c>
       <c r="H1119" s="2" t="s">
         <v>4445</v>
       </c>
@@ -52218,8 +52319,11 @@
       <c r="O1119">
         <v>18</v>
       </c>
-    </row>
-    <row r="1120" spans="1:17">
+      <c r="P1119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:18">
       <c r="A1120" t="s">
         <v>3284</v>
       </c>
@@ -52257,7 +52361,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1121" spans="1:17">
+    <row r="1121" spans="1:18">
       <c r="A1121" t="s">
         <v>3285</v>
       </c>
@@ -52295,7 +52399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1122" spans="1:17">
+    <row r="1122" spans="1:18">
       <c r="A1122" t="s">
         <v>3286</v>
       </c>
@@ -52321,7 +52425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1123" spans="1:17">
+    <row r="1123" spans="1:18">
       <c r="A1123" t="s">
         <v>3287</v>
       </c>
@@ -52359,7 +52463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1124" spans="1:17">
+    <row r="1124" spans="1:18">
       <c r="A1124" t="s">
         <v>3288</v>
       </c>
@@ -52385,7 +52489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1125" spans="1:17">
+    <row r="1125" spans="1:18">
       <c r="A1125" t="s">
         <v>3289</v>
       </c>
@@ -52423,7 +52527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1126" spans="1:17">
+    <row r="1126" spans="1:18">
       <c r="A1126" t="s">
         <v>3290</v>
       </c>
@@ -52448,11 +52552,11 @@
       <c r="K1126">
         <v>13</v>
       </c>
-      <c r="Q1126" t="s">
+      <c r="R1126" t="s">
         <v>3411</v>
       </c>
     </row>
-    <row r="1127" spans="1:17">
+    <row r="1127" spans="1:18">
       <c r="A1127" t="s">
         <v>3291</v>
       </c>
@@ -52490,7 +52594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1128" spans="1:17">
+    <row r="1128" spans="1:18">
       <c r="A1128" t="s">
         <v>3292</v>
       </c>
@@ -52516,7 +52620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1129" spans="1:17">
+    <row r="1129" spans="1:18">
       <c r="A1129" t="s">
         <v>3293</v>
       </c>
@@ -52545,7 +52649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1130" spans="1:17">
+    <row r="1130" spans="1:18">
       <c r="A1130" t="s">
         <v>3294</v>
       </c>
@@ -52571,7 +52675,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1131" spans="1:17">
+    <row r="1131" spans="1:18">
       <c r="A1131" t="s">
         <v>3295</v>
       </c>
@@ -52612,7 +52716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1132" spans="1:17">
+    <row r="1132" spans="1:18">
       <c r="A1132" t="s">
         <v>3296</v>
       </c>
@@ -52641,7 +52745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1133" spans="1:17">
+    <row r="1133" spans="1:18">
       <c r="A1133" t="s">
         <v>3297</v>
       </c>
@@ -52667,7 +52771,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1134" spans="1:17">
+    <row r="1134" spans="1:18">
       <c r="A1134" t="s">
         <v>3298</v>
       </c>
@@ -52705,7 +52809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1135" spans="1:17">
+    <row r="1135" spans="1:18">
       <c r="A1135" t="s">
         <v>3299</v>
       </c>
@@ -52731,7 +52835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1136" spans="1:17">
+    <row r="1136" spans="1:18">
       <c r="A1136" t="s">
         <v>3300</v>
       </c>
@@ -52760,7 +52864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1137" spans="1:17">
+    <row r="1137" spans="1:18">
       <c r="A1137" t="s">
         <v>3301</v>
       </c>
@@ -52800,8 +52904,11 @@
       <c r="O1137">
         <v>21</v>
       </c>
-    </row>
-    <row r="1138" spans="1:17">
+      <c r="P1137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:18">
       <c r="A1138" t="s">
         <v>3302</v>
       </c>
@@ -52830,7 +52937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1139" spans="1:17">
+    <row r="1139" spans="1:18">
       <c r="A1139" t="s">
         <v>3303</v>
       </c>
@@ -52868,7 +52975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1140" spans="1:17">
+    <row r="1140" spans="1:18">
       <c r="A1140" t="s">
         <v>3304</v>
       </c>
@@ -52894,7 +53001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1141" spans="1:17">
+    <row r="1141" spans="1:18">
       <c r="A1141" t="s">
         <v>3305</v>
       </c>
@@ -52932,7 +53039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1142" spans="1:17">
+    <row r="1142" spans="1:18">
       <c r="A1142" t="s">
         <v>3306</v>
       </c>
@@ -52970,7 +53077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1143" spans="1:17">
+    <row r="1143" spans="1:18">
       <c r="A1143" t="s">
         <v>3307</v>
       </c>
@@ -52996,7 +53103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1144" spans="1:17">
+    <row r="1144" spans="1:18">
       <c r="A1144" t="s">
         <v>3308</v>
       </c>
@@ -53021,11 +53128,11 @@
       <c r="K1144">
         <v>3</v>
       </c>
-      <c r="Q1144" t="s">
+      <c r="R1144" t="s">
         <v>3412</v>
       </c>
     </row>
-    <row r="1145" spans="1:17">
+    <row r="1145" spans="1:18">
       <c r="A1145" t="s">
         <v>3309</v>
       </c>
@@ -53063,7 +53170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1146" spans="1:17">
+    <row r="1146" spans="1:18">
       <c r="A1146" t="s">
         <v>3310</v>
       </c>
@@ -53092,7 +53199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1147" spans="1:17">
+    <row r="1147" spans="1:18">
       <c r="A1147" t="s">
         <v>3311</v>
       </c>
@@ -53117,11 +53224,11 @@
       <c r="K1147">
         <v>21</v>
       </c>
-      <c r="Q1147" t="s">
+      <c r="R1147" t="s">
         <v>3413</v>
       </c>
     </row>
-    <row r="1148" spans="1:17">
+    <row r="1148" spans="1:18">
       <c r="A1148" t="s">
         <v>3312</v>
       </c>
@@ -53147,7 +53254,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1149" spans="1:17">
+    <row r="1149" spans="1:18">
       <c r="A1149" t="s">
         <v>3313</v>
       </c>
@@ -53185,7 +53292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1150" spans="1:17">
+    <row r="1150" spans="1:18">
       <c r="A1150" t="s">
         <v>3314</v>
       </c>
@@ -53223,7 +53330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1151" spans="1:17">
+    <row r="1151" spans="1:18">
       <c r="A1151" t="s">
         <v>3315</v>
       </c>
@@ -53249,7 +53356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1152" spans="1:17">
+    <row r="1152" spans="1:18">
       <c r="A1152" t="s">
         <v>3316</v>
       </c>
@@ -53287,7 +53394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1153" spans="1:17">
+    <row r="1153" spans="1:18">
       <c r="A1153" t="s">
         <v>3317</v>
       </c>
@@ -53325,7 +53432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1154" spans="1:17">
+    <row r="1154" spans="1:18">
       <c r="A1154" t="s">
         <v>3318</v>
       </c>
@@ -53363,7 +53470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1155" spans="1:17">
+    <row r="1155" spans="1:18">
       <c r="A1155" t="s">
         <v>3319</v>
       </c>
@@ -53389,7 +53496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1156" spans="1:17">
+    <row r="1156" spans="1:18">
       <c r="A1156" t="s">
         <v>3320</v>
       </c>
@@ -53430,7 +53537,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1157" spans="1:17">
+    <row r="1157" spans="1:18">
       <c r="A1157" t="s">
         <v>3321</v>
       </c>
@@ -53456,7 +53563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1158" spans="1:17">
+    <row r="1158" spans="1:18">
       <c r="A1158" t="s">
         <v>3322</v>
       </c>
@@ -53482,7 +53589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1159" spans="1:17">
+    <row r="1159" spans="1:18">
       <c r="A1159" t="s">
         <v>3323</v>
       </c>
@@ -53520,7 +53627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1160" spans="1:17">
+    <row r="1160" spans="1:18">
       <c r="A1160" t="s">
         <v>3324</v>
       </c>
@@ -53546,7 +53653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1161" spans="1:17">
+    <row r="1161" spans="1:18">
       <c r="A1161" t="s">
         <v>3325</v>
       </c>
@@ -53584,7 +53691,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1162" spans="1:17">
+    <row r="1162" spans="1:18">
       <c r="A1162" t="s">
         <v>3326</v>
       </c>
@@ -53610,7 +53717,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1163" spans="1:17">
+    <row r="1163" spans="1:18">
       <c r="A1163" t="s">
         <v>3327</v>
       </c>
@@ -53636,7 +53743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="1164" spans="1:17">
+    <row r="1164" spans="1:18">
       <c r="A1164" t="s">
         <v>3328</v>
       </c>
@@ -53662,7 +53769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1165" spans="1:17">
+    <row r="1165" spans="1:18">
       <c r="A1165" t="s">
         <v>3329</v>
       </c>
@@ -53688,7 +53795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1166" spans="1:17">
+    <row r="1166" spans="1:18">
       <c r="A1166" t="s">
         <v>3330</v>
       </c>
@@ -53717,7 +53824,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1167" spans="1:17">
+    <row r="1167" spans="1:18">
       <c r="A1167" t="s">
         <v>3331</v>
       </c>
@@ -53754,11 +53861,11 @@
       <c r="O1167">
         <v>13</v>
       </c>
-      <c r="Q1167" t="s">
+      <c r="R1167" t="s">
         <v>3414</v>
       </c>
     </row>
-    <row r="1168" spans="1:17">
+    <row r="1168" spans="1:18">
       <c r="A1168" t="s">
         <v>3332</v>
       </c>
